--- a/추가피처데이터/투자자별매매동향(수급)/326030.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/326030.xlsx
@@ -1637,43 +1637,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1905,58 +1905,58 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>833</v>
+        <v>59800</v>
       </c>
       <c r="C6" s="7">
-        <v>816</v>
+        <v>58388</v>
       </c>
       <c r="D6" s="9">
-        <v>17</v>
+        <v>1412</v>
       </c>
       <c r="E6" s="11">
-        <v>1033</v>
+        <v>73620</v>
       </c>
       <c r="F6" s="13">
-        <v>1161</v>
+        <v>83064</v>
       </c>
       <c r="G6" s="15">
-        <v>-127</v>
+        <v>-9444</v>
       </c>
       <c r="H6" s="17">
-        <v>403</v>
+        <v>28828</v>
       </c>
       <c r="I6" s="19">
-        <v>289</v>
+        <v>20519</v>
       </c>
       <c r="J6" s="21">
-        <v>114</v>
+        <v>8309</v>
       </c>
       <c r="K6" s="23">
-        <v>169</v>
+        <v>12001</v>
       </c>
       <c r="L6" s="25">
-        <v>142</v>
+        <v>10058</v>
       </c>
       <c r="M6" s="27">
-        <v>27</v>
+        <v>1942</v>
       </c>
       <c r="N6" s="29">
-        <v>8</v>
+        <v>597</v>
       </c>
       <c r="O6" s="31">
-        <v>9</v>
+        <v>624</v>
       </c>
       <c r="P6" s="33">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="Q6" s="35">
-        <v>56</v>
+        <v>4047</v>
       </c>
       <c r="R6" s="37">
-        <v>43</v>
+        <v>3049</v>
       </c>
       <c r="S6" s="39">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
@@ -1968,31 +1968,31 @@
         <v>0</v>
       </c>
       <c r="W6" s="47">
-        <v>13</v>
+        <v>936</v>
       </c>
       <c r="X6" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="51">
-        <v>13</v>
+        <v>935</v>
       </c>
       <c r="Z6" s="53">
-        <v>81</v>
+        <v>5822</v>
       </c>
       <c r="AA6" s="55">
-        <v>56</v>
+        <v>3974</v>
       </c>
       <c r="AB6" s="57">
-        <v>25</v>
+        <v>1848</v>
       </c>
       <c r="AC6" s="59">
-        <v>76</v>
+        <v>5426</v>
       </c>
       <c r="AD6" s="61">
-        <v>40</v>
+        <v>2812</v>
       </c>
       <c r="AE6" s="63">
-        <v>36</v>
+        <v>2613</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>12</v>
+        <v>837</v>
       </c>
       <c r="AJ6" s="73">
-        <v>15</v>
+        <v>1115</v>
       </c>
       <c r="AK6" s="75">
-        <v>-4</v>
+        <v>-278</v>
       </c>
       <c r="AL6" s="77">
-        <v>2282</v>
+        <v>163086</v>
       </c>
     </row>
     <row r="7">
@@ -2021,94 +2021,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>1049</v>
+        <v>72957</v>
       </c>
       <c r="C7" s="7">
-        <v>934</v>
+        <v>65169</v>
       </c>
       <c r="D7" s="9">
-        <v>115</v>
+        <v>7788</v>
       </c>
       <c r="E7" s="11">
-        <v>1682</v>
+        <v>116961</v>
       </c>
       <c r="F7" s="13">
-        <v>2030</v>
+        <v>141778</v>
       </c>
       <c r="G7" s="15">
-        <v>-347</v>
+        <v>-24817</v>
       </c>
       <c r="H7" s="17">
-        <v>549</v>
+        <v>38755</v>
       </c>
       <c r="I7" s="19">
-        <v>324</v>
+        <v>22233</v>
       </c>
       <c r="J7" s="21">
-        <v>225</v>
+        <v>16521</v>
       </c>
       <c r="K7" s="23">
-        <v>193</v>
+        <v>13454</v>
       </c>
       <c r="L7" s="25">
-        <v>188</v>
+        <v>12933</v>
       </c>
       <c r="M7" s="27">
-        <v>5</v>
+        <v>520</v>
       </c>
       <c r="N7" s="29">
+        <v>1638</v>
+      </c>
+      <c r="O7" s="31">
+        <v>1590</v>
+      </c>
+      <c r="P7" s="33">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>5309</v>
+      </c>
+      <c r="R7" s="37">
+        <v>1603</v>
+      </c>
+      <c r="S7" s="39">
+        <v>3705</v>
+      </c>
+      <c r="T7" s="41">
+        <v>0</v>
+      </c>
+      <c r="U7" s="43">
+        <v>0</v>
+      </c>
+      <c r="V7" s="45">
+        <v>0</v>
+      </c>
+      <c r="W7" s="47">
+        <v>1</v>
+      </c>
+      <c r="X7" s="49">
         <v>23</v>
       </c>
-      <c r="O7" s="31">
-        <v>24</v>
-      </c>
-      <c r="P7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="35">
-        <v>75</v>
-      </c>
-      <c r="R7" s="37">
-        <v>23</v>
-      </c>
-      <c r="S7" s="39">
-        <v>52</v>
-      </c>
-      <c r="T7" s="41">
-        <v>0</v>
-      </c>
-      <c r="U7" s="43">
-        <v>0</v>
-      </c>
-      <c r="V7" s="45">
-        <v>0</v>
-      </c>
-      <c r="W7" s="47">
-        <v>0</v>
-      </c>
-      <c r="X7" s="49">
-        <v>0</v>
-      </c>
       <c r="Y7" s="51">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="Z7" s="53">
-        <v>139</v>
+        <v>10055</v>
       </c>
       <c r="AA7" s="55">
-        <v>60</v>
+        <v>4061</v>
       </c>
       <c r="AB7" s="57">
-        <v>79</v>
+        <v>5994</v>
       </c>
       <c r="AC7" s="59">
-        <v>120</v>
+        <v>8298</v>
       </c>
       <c r="AD7" s="61">
-        <v>29</v>
+        <v>2022</v>
       </c>
       <c r="AE7" s="63">
-        <v>91</v>
+        <v>6276</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2120,16 +2120,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>15</v>
+        <v>1078</v>
       </c>
       <c r="AJ7" s="73">
-        <v>8</v>
+        <v>570</v>
       </c>
       <c r="AK7" s="75">
-        <v>7</v>
+        <v>508</v>
       </c>
       <c r="AL7" s="77">
-        <v>3296</v>
+        <v>229750</v>
       </c>
     </row>
     <row r="8">
@@ -2137,58 +2137,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>753</v>
+        <v>46994</v>
       </c>
       <c r="C8" s="7">
-        <v>755</v>
+        <v>47141</v>
       </c>
       <c r="D8" s="9">
-        <v>-1</v>
+        <v>-147</v>
       </c>
       <c r="E8" s="11">
-        <v>1042</v>
+        <v>64858</v>
       </c>
       <c r="F8" s="13">
-        <v>974</v>
+        <v>60570</v>
       </c>
       <c r="G8" s="15">
-        <v>69</v>
+        <v>4288</v>
       </c>
       <c r="H8" s="17">
-        <v>365</v>
+        <v>22750</v>
       </c>
       <c r="I8" s="19">
-        <v>426</v>
+        <v>26483</v>
       </c>
       <c r="J8" s="21">
-        <v>-61</v>
+        <v>-3733</v>
       </c>
       <c r="K8" s="23">
-        <v>189</v>
+        <v>11780</v>
       </c>
       <c r="L8" s="25">
-        <v>189</v>
+        <v>11798</v>
       </c>
       <c r="M8" s="27">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="N8" s="29">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="O8" s="31">
-        <v>20</v>
+        <v>1277</v>
       </c>
       <c r="P8" s="33">
-        <v>-15</v>
+        <v>-934</v>
       </c>
       <c r="Q8" s="35">
-        <v>49</v>
+        <v>3063</v>
       </c>
       <c r="R8" s="37">
-        <v>38</v>
+        <v>2401</v>
       </c>
       <c r="S8" s="39">
-        <v>10</v>
+        <v>662</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2200,31 +2200,31 @@
         <v>0</v>
       </c>
       <c r="W8" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8" s="49">
-        <v>9</v>
+        <v>569</v>
       </c>
       <c r="Y8" s="51">
-        <v>-9</v>
+        <v>-566</v>
       </c>
       <c r="Z8" s="53">
-        <v>97</v>
+        <v>5993</v>
       </c>
       <c r="AA8" s="55">
-        <v>124</v>
+        <v>7629</v>
       </c>
       <c r="AB8" s="57">
-        <v>-27</v>
+        <v>-1637</v>
       </c>
       <c r="AC8" s="59">
-        <v>25</v>
+        <v>1568</v>
       </c>
       <c r="AD8" s="61">
-        <v>46</v>
+        <v>2809</v>
       </c>
       <c r="AE8" s="63">
-        <v>-21</v>
+        <v>-1240</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>7</v>
+        <v>423</v>
       </c>
       <c r="AJ8" s="73">
-        <v>13</v>
+        <v>830</v>
       </c>
       <c r="AK8" s="75">
-        <v>-7</v>
+        <v>-407</v>
       </c>
       <c r="AL8" s="77">
-        <v>2168</v>
+        <v>135024</v>
       </c>
     </row>
     <row r="9">
@@ -2253,58 +2253,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>652</v>
+        <v>44785</v>
       </c>
       <c r="C9" s="7">
-        <v>782</v>
+        <v>53823</v>
       </c>
       <c r="D9" s="9">
-        <v>-130</v>
+        <v>-9038</v>
       </c>
       <c r="E9" s="11">
-        <v>931</v>
+        <v>64077</v>
       </c>
       <c r="F9" s="13">
-        <v>706</v>
+        <v>48681</v>
       </c>
       <c r="G9" s="15">
-        <v>225</v>
+        <v>15396</v>
       </c>
       <c r="H9" s="17">
-        <v>267</v>
+        <v>18584</v>
       </c>
       <c r="I9" s="19">
-        <v>362</v>
+        <v>24936</v>
       </c>
       <c r="J9" s="21">
-        <v>-95</v>
+        <v>-6352</v>
       </c>
       <c r="K9" s="23">
-        <v>143</v>
+        <v>9839</v>
       </c>
       <c r="L9" s="25">
-        <v>202</v>
+        <v>13920</v>
       </c>
       <c r="M9" s="27">
-        <v>-60</v>
+        <v>-4081</v>
       </c>
       <c r="N9" s="29">
-        <v>6</v>
+        <v>411</v>
       </c>
       <c r="O9" s="31">
-        <v>14</v>
+        <v>998</v>
       </c>
       <c r="P9" s="33">
-        <v>-9</v>
+        <v>-587</v>
       </c>
       <c r="Q9" s="35">
-        <v>8</v>
+        <v>585</v>
       </c>
       <c r="R9" s="37">
-        <v>34</v>
+        <v>2372</v>
       </c>
       <c r="S9" s="39">
-        <v>-25</v>
+        <v>-1787</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2316,52 +2316,52 @@
         <v>0</v>
       </c>
       <c r="W9" s="47">
-        <v>6</v>
+        <v>427</v>
       </c>
       <c r="X9" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="51">
-        <v>6</v>
+        <v>425</v>
       </c>
       <c r="Z9" s="53">
-        <v>77</v>
+        <v>5411</v>
       </c>
       <c r="AA9" s="55">
-        <v>81</v>
+        <v>5547</v>
       </c>
       <c r="AB9" s="57">
+        <v>-136</v>
+      </c>
+      <c r="AC9" s="59">
+        <v>1912</v>
+      </c>
+      <c r="AD9" s="61">
+        <v>2098</v>
+      </c>
+      <c r="AE9" s="63">
+        <v>-186</v>
+      </c>
+      <c r="AF9" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="71">
+        <v>465</v>
+      </c>
+      <c r="AJ9" s="73">
+        <v>471</v>
+      </c>
+      <c r="AK9" s="75">
         <v>-5</v>
       </c>
-      <c r="AC9" s="59">
-        <v>27</v>
-      </c>
-      <c r="AD9" s="61">
-        <v>30</v>
-      </c>
-      <c r="AE9" s="63">
-        <v>-3</v>
-      </c>
-      <c r="AF9" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="71">
-        <v>7</v>
-      </c>
-      <c r="AJ9" s="73">
-        <v>7</v>
-      </c>
-      <c r="AK9" s="75">
-        <v>0</v>
-      </c>
       <c r="AL9" s="77">
-        <v>1857</v>
+        <v>127911</v>
       </c>
     </row>
     <row r="10">
@@ -2369,58 +2369,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>606</v>
+        <v>43896</v>
       </c>
       <c r="C10" s="7">
-        <v>599</v>
+        <v>43498</v>
       </c>
       <c r="D10" s="9">
-        <v>7</v>
+        <v>398</v>
       </c>
       <c r="E10" s="11">
-        <v>558</v>
+        <v>40424</v>
       </c>
       <c r="F10" s="13">
-        <v>680</v>
+        <v>49567</v>
       </c>
       <c r="G10" s="15">
-        <v>-122</v>
+        <v>-9143</v>
       </c>
       <c r="H10" s="17">
-        <v>391</v>
+        <v>28720</v>
       </c>
       <c r="I10" s="19">
-        <v>273</v>
+        <v>19735</v>
       </c>
       <c r="J10" s="21">
-        <v>118</v>
+        <v>8985</v>
       </c>
       <c r="K10" s="23">
-        <v>183</v>
+        <v>13395</v>
       </c>
       <c r="L10" s="25">
-        <v>162</v>
+        <v>11708</v>
       </c>
       <c r="M10" s="27">
-        <v>20</v>
+        <v>1687</v>
       </c>
       <c r="N10" s="29">
-        <v>33</v>
+        <v>2428</v>
       </c>
       <c r="O10" s="31">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="P10" s="33">
-        <v>29</v>
+        <v>2107</v>
       </c>
       <c r="Q10" s="35">
-        <v>38</v>
+        <v>2795</v>
       </c>
       <c r="R10" s="37">
-        <v>43</v>
+        <v>3100</v>
       </c>
       <c r="S10" s="39">
-        <v>-5</v>
+        <v>-305</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2432,31 +2432,31 @@
         <v>0</v>
       </c>
       <c r="W10" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="51">
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <v>127</v>
+        <v>9299</v>
       </c>
       <c r="AA10" s="55">
-        <v>46</v>
+        <v>3343</v>
       </c>
       <c r="AB10" s="57">
-        <v>80</v>
+        <v>5957</v>
       </c>
       <c r="AC10" s="59">
-        <v>11</v>
+        <v>801</v>
       </c>
       <c r="AD10" s="61">
-        <v>18</v>
+        <v>1262</v>
       </c>
       <c r="AE10" s="63">
-        <v>-7</v>
+        <v>-461</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2468,16 +2468,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>6</v>
+        <v>437</v>
       </c>
       <c r="AJ10" s="73">
-        <v>9</v>
+        <v>676</v>
       </c>
       <c r="AK10" s="75">
-        <v>-3</v>
+        <v>-240</v>
       </c>
       <c r="AL10" s="77">
-        <v>1562</v>
+        <v>113476</v>
       </c>
     </row>
     <row r="11">
@@ -2485,94 +2485,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>650</v>
+        <v>47410</v>
       </c>
       <c r="C11" s="7">
-        <v>603</v>
+        <v>43949</v>
       </c>
       <c r="D11" s="9">
-        <v>47</v>
+        <v>3461</v>
       </c>
       <c r="E11" s="11">
-        <v>654</v>
+        <v>47770</v>
       </c>
       <c r="F11" s="13">
-        <v>829</v>
+        <v>60643</v>
       </c>
       <c r="G11" s="15">
-        <v>-175</v>
+        <v>-12873</v>
       </c>
       <c r="H11" s="17">
-        <v>392</v>
+        <v>28564</v>
       </c>
       <c r="I11" s="19">
-        <v>255</v>
+        <v>18482</v>
       </c>
       <c r="J11" s="21">
-        <v>137</v>
+        <v>10083</v>
       </c>
       <c r="K11" s="23">
-        <v>177</v>
+        <v>12866</v>
       </c>
       <c r="L11" s="25">
-        <v>139</v>
+        <v>10061</v>
       </c>
       <c r="M11" s="27">
-        <v>38</v>
+        <v>2805</v>
       </c>
       <c r="N11" s="29">
-        <v>22</v>
+        <v>1600</v>
       </c>
       <c r="O11" s="31">
-        <v>9</v>
+        <v>616</v>
       </c>
       <c r="P11" s="33">
-        <v>14</v>
+        <v>985</v>
       </c>
       <c r="Q11" s="35">
-        <v>40</v>
+        <v>2963</v>
       </c>
       <c r="R11" s="37">
-        <v>42</v>
+        <v>3075</v>
       </c>
       <c r="S11" s="39">
-        <v>-2</v>
+        <v>-112</v>
       </c>
       <c r="T11" s="41">
         <v>0</v>
       </c>
       <c r="U11" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W11" s="47">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="X11" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="51">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="Z11" s="53">
-        <v>106</v>
+        <v>7701</v>
       </c>
       <c r="AA11" s="55">
-        <v>56</v>
+        <v>4091</v>
       </c>
       <c r="AB11" s="57">
-        <v>50</v>
+        <v>3611</v>
       </c>
       <c r="AC11" s="59">
-        <v>43</v>
+        <v>3160</v>
       </c>
       <c r="AD11" s="61">
-        <v>9</v>
+        <v>636</v>
       </c>
       <c r="AE11" s="63">
-        <v>34</v>
+        <v>2525</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2584,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="AJ11" s="73">
-        <v>10</v>
+        <v>752</v>
       </c>
       <c r="AK11" s="75">
-        <v>-9</v>
+        <v>-671</v>
       </c>
       <c r="AL11" s="77">
-        <v>1697</v>
+        <v>123826</v>
       </c>
     </row>
     <row r="12">
@@ -2601,58 +2601,58 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>1211</v>
+        <v>84215</v>
       </c>
       <c r="C12" s="7">
-        <v>941</v>
+        <v>65656</v>
       </c>
       <c r="D12" s="9">
-        <v>270</v>
+        <v>18559</v>
       </c>
       <c r="E12" s="11">
-        <v>1100</v>
+        <v>77002</v>
       </c>
       <c r="F12" s="13">
-        <v>1583</v>
+        <v>111030</v>
       </c>
       <c r="G12" s="15">
-        <v>-483</v>
+        <v>-34028</v>
       </c>
       <c r="H12" s="17">
-        <v>587</v>
+        <v>41456</v>
       </c>
       <c r="I12" s="19">
-        <v>370</v>
+        <v>25701</v>
       </c>
       <c r="J12" s="21">
-        <v>217</v>
+        <v>15755</v>
       </c>
       <c r="K12" s="23">
-        <v>200</v>
+        <v>13842</v>
       </c>
       <c r="L12" s="25">
-        <v>162</v>
+        <v>11027</v>
       </c>
       <c r="M12" s="27">
-        <v>38</v>
+        <v>2815</v>
       </c>
       <c r="N12" s="29">
-        <v>31</v>
+        <v>2127</v>
       </c>
       <c r="O12" s="31">
-        <v>20</v>
+        <v>1403</v>
       </c>
       <c r="P12" s="33">
-        <v>11</v>
+        <v>724</v>
       </c>
       <c r="Q12" s="35">
-        <v>61</v>
+        <v>4204</v>
       </c>
       <c r="R12" s="37">
-        <v>40</v>
+        <v>2833</v>
       </c>
       <c r="S12" s="39">
-        <v>21</v>
+        <v>1371</v>
       </c>
       <c r="T12" s="41">
         <v>0</v>
@@ -2664,31 +2664,31 @@
         <v>0</v>
       </c>
       <c r="W12" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12" s="49">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="Y12" s="51">
-        <v>-2</v>
+        <v>-164</v>
       </c>
       <c r="Z12" s="53">
-        <v>261</v>
+        <v>18917</v>
       </c>
       <c r="AA12" s="55">
-        <v>57</v>
+        <v>3942</v>
       </c>
       <c r="AB12" s="57">
-        <v>204</v>
+        <v>14975</v>
       </c>
       <c r="AC12" s="59">
-        <v>34</v>
+        <v>2364</v>
       </c>
       <c r="AD12" s="61">
-        <v>89</v>
+        <v>6328</v>
       </c>
       <c r="AE12" s="63">
-        <v>-55</v>
+        <v>-3965</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2700,16 +2700,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>11</v>
+        <v>802</v>
       </c>
       <c r="AJ12" s="73">
-        <v>15</v>
+        <v>1089</v>
       </c>
       <c r="AK12" s="75">
-        <v>-4</v>
+        <v>-287</v>
       </c>
       <c r="AL12" s="77">
-        <v>2909</v>
+        <v>203476</v>
       </c>
     </row>
     <row r="13">
@@ -2717,115 +2717,115 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>1157</v>
+        <v>63884</v>
       </c>
       <c r="C13" s="7">
-        <v>837</v>
+        <v>46188</v>
       </c>
       <c r="D13" s="9">
-        <v>320</v>
+        <v>17697</v>
       </c>
       <c r="E13" s="11">
-        <v>881</v>
+        <v>48634</v>
       </c>
       <c r="F13" s="13">
-        <v>1067</v>
+        <v>59026</v>
       </c>
       <c r="G13" s="15">
-        <v>-186</v>
+        <v>-10391</v>
       </c>
       <c r="H13" s="17">
-        <v>262</v>
+        <v>14438</v>
       </c>
       <c r="I13" s="19">
-        <v>396</v>
+        <v>21756</v>
       </c>
       <c r="J13" s="21">
-        <v>-134</v>
+        <v>-7318</v>
       </c>
       <c r="K13" s="23">
-        <v>134</v>
+        <v>7427</v>
       </c>
       <c r="L13" s="25">
-        <v>130</v>
+        <v>7131</v>
       </c>
       <c r="M13" s="27">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="N13" s="29">
-        <v>6</v>
+        <v>356</v>
       </c>
       <c r="O13" s="31">
-        <v>12</v>
+        <v>671</v>
       </c>
       <c r="P13" s="33">
-        <v>-6</v>
+        <v>-315</v>
       </c>
       <c r="Q13" s="35">
+        <v>700</v>
+      </c>
+      <c r="R13" s="37">
+        <v>1350</v>
+      </c>
+      <c r="S13" s="39">
+        <v>-649</v>
+      </c>
+      <c r="T13" s="41">
+        <v>0</v>
+      </c>
+      <c r="U13" s="43">
+        <v>0</v>
+      </c>
+      <c r="V13" s="45">
+        <v>0</v>
+      </c>
+      <c r="W13" s="47">
+        <v>0</v>
+      </c>
+      <c r="X13" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="53">
+        <v>5334</v>
+      </c>
+      <c r="AA13" s="55">
+        <v>10623</v>
+      </c>
+      <c r="AB13" s="57">
+        <v>-5290</v>
+      </c>
+      <c r="AC13" s="59">
+        <v>620</v>
+      </c>
+      <c r="AD13" s="61">
+        <v>1980</v>
+      </c>
+      <c r="AE13" s="63">
+        <v>-1360</v>
+      </c>
+      <c r="AF13" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="71">
+        <v>131</v>
+      </c>
+      <c r="AJ13" s="73">
+        <v>118</v>
+      </c>
+      <c r="AK13" s="75">
         <v>13</v>
       </c>
-      <c r="R13" s="37">
-        <v>24</v>
-      </c>
-      <c r="S13" s="39">
-        <v>-11</v>
-      </c>
-      <c r="T13" s="41">
-        <v>0</v>
-      </c>
-      <c r="U13" s="43">
-        <v>0</v>
-      </c>
-      <c r="V13" s="45">
-        <v>0</v>
-      </c>
-      <c r="W13" s="47">
-        <v>0</v>
-      </c>
-      <c r="X13" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="53">
-        <v>98</v>
-      </c>
-      <c r="AA13" s="55">
-        <v>193</v>
-      </c>
-      <c r="AB13" s="57">
-        <v>-95</v>
-      </c>
-      <c r="AC13" s="59">
-        <v>11</v>
-      </c>
-      <c r="AD13" s="61">
-        <v>37</v>
-      </c>
-      <c r="AE13" s="63">
-        <v>-26</v>
-      </c>
-      <c r="AF13" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="71">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="73">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="75">
-        <v>0</v>
-      </c>
       <c r="AL13" s="77">
-        <v>2302</v>
+        <v>127087</v>
       </c>
     </row>
     <row r="14">
@@ -2833,94 +2833,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>769</v>
+        <v>49388</v>
       </c>
       <c r="C14" s="7">
-        <v>786</v>
+        <v>51162</v>
       </c>
       <c r="D14" s="9">
-        <v>-16</v>
+        <v>-1775</v>
       </c>
       <c r="E14" s="11">
-        <v>1137</v>
+        <v>73486</v>
       </c>
       <c r="F14" s="13">
-        <v>1054</v>
+        <v>67299</v>
       </c>
       <c r="G14" s="15">
-        <v>83</v>
+        <v>6188</v>
       </c>
       <c r="H14" s="17">
-        <v>306</v>
+        <v>19867</v>
       </c>
       <c r="I14" s="19">
-        <v>368</v>
+        <v>24079</v>
       </c>
       <c r="J14" s="21">
-        <v>-63</v>
+        <v>-4212</v>
       </c>
       <c r="K14" s="23">
-        <v>159</v>
+        <v>10206</v>
       </c>
       <c r="L14" s="25">
-        <v>160</v>
+        <v>10431</v>
       </c>
       <c r="M14" s="27">
-        <v>0</v>
+        <v>-225</v>
       </c>
       <c r="N14" s="29">
-        <v>17</v>
+        <v>1134</v>
       </c>
       <c r="O14" s="31">
-        <v>27</v>
+        <v>1699</v>
       </c>
       <c r="P14" s="33">
-        <v>-10</v>
+        <v>-565</v>
       </c>
       <c r="Q14" s="35">
+        <v>1068</v>
+      </c>
+      <c r="R14" s="37">
+        <v>1780</v>
+      </c>
+      <c r="S14" s="39">
+        <v>-712</v>
+      </c>
+      <c r="T14" s="41">
+        <v>0</v>
+      </c>
+      <c r="U14" s="43">
+        <v>0</v>
+      </c>
+      <c r="V14" s="45">
+        <v>0</v>
+      </c>
+      <c r="W14" s="47">
         <v>16</v>
       </c>
-      <c r="R14" s="37">
-        <v>28</v>
-      </c>
-      <c r="S14" s="39">
-        <v>-12</v>
-      </c>
-      <c r="T14" s="41">
-        <v>0</v>
-      </c>
-      <c r="U14" s="43">
-        <v>0</v>
-      </c>
-      <c r="V14" s="45">
-        <v>0</v>
-      </c>
-      <c r="W14" s="47">
-        <v>0</v>
-      </c>
       <c r="X14" s="49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y14" s="51">
         <v>0</v>
       </c>
       <c r="Z14" s="53">
-        <v>91</v>
+        <v>6132</v>
       </c>
       <c r="AA14" s="55">
-        <v>135</v>
+        <v>8910</v>
       </c>
       <c r="AB14" s="57">
-        <v>-44</v>
+        <v>-2778</v>
       </c>
       <c r="AC14" s="59">
-        <v>22</v>
+        <v>1311</v>
       </c>
       <c r="AD14" s="61">
-        <v>18</v>
+        <v>1242</v>
       </c>
       <c r="AE14" s="63">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2932,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>7</v>
+        <v>452</v>
       </c>
       <c r="AJ14" s="73">
-        <v>11</v>
+        <v>653</v>
       </c>
       <c r="AK14" s="75">
-        <v>-4</v>
+        <v>-201</v>
       </c>
       <c r="AL14" s="77">
-        <v>2219</v>
+        <v>143193</v>
       </c>
     </row>
     <row r="15">
@@ -2949,94 +2949,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>924</v>
+        <v>70178</v>
       </c>
       <c r="C15" s="7">
-        <v>1044</v>
+        <v>79387</v>
       </c>
       <c r="D15" s="9">
-        <v>-120</v>
+        <v>-9209</v>
       </c>
       <c r="E15" s="11">
-        <v>1503</v>
+        <v>113847</v>
       </c>
       <c r="F15" s="13">
-        <v>1061</v>
+        <v>81246</v>
       </c>
       <c r="G15" s="15">
-        <v>443</v>
+        <v>32601</v>
       </c>
       <c r="H15" s="17">
-        <v>339</v>
+        <v>26254</v>
       </c>
       <c r="I15" s="19">
-        <v>666</v>
+        <v>49957</v>
       </c>
       <c r="J15" s="21">
-        <v>-327</v>
+        <v>-23703</v>
       </c>
       <c r="K15" s="23">
-        <v>125</v>
+        <v>9633</v>
       </c>
       <c r="L15" s="25">
-        <v>164</v>
+        <v>12460</v>
       </c>
       <c r="M15" s="27">
-        <v>-39</v>
+        <v>-2828</v>
       </c>
       <c r="N15" s="29">
-        <v>18</v>
+        <v>1421</v>
       </c>
       <c r="O15" s="31">
-        <v>36</v>
+        <v>2720</v>
       </c>
       <c r="P15" s="33">
-        <v>-18</v>
+        <v>-1299</v>
       </c>
       <c r="Q15" s="35">
-        <v>30</v>
+        <v>2310</v>
       </c>
       <c r="R15" s="37">
-        <v>45</v>
+        <v>3371</v>
       </c>
       <c r="S15" s="39">
-        <v>-15</v>
+        <v>-1061</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
       </c>
       <c r="U15" s="43">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="V15" s="45">
-        <v>-1</v>
+        <v>-54</v>
       </c>
       <c r="W15" s="47">
         <v>0</v>
       </c>
       <c r="X15" s="49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y15" s="51">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="Z15" s="53">
-        <v>157</v>
+        <v>12137</v>
       </c>
       <c r="AA15" s="55">
-        <v>400</v>
+        <v>29818</v>
       </c>
       <c r="AB15" s="57">
-        <v>-243</v>
+        <v>-17681</v>
       </c>
       <c r="AC15" s="59">
-        <v>10</v>
+        <v>753</v>
       </c>
       <c r="AD15" s="61">
-        <v>21</v>
+        <v>1517</v>
       </c>
       <c r="AE15" s="63">
-        <v>-11</v>
+        <v>-765</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>10</v>
+        <v>792</v>
       </c>
       <c r="AJ15" s="73">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="AK15" s="75">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="AL15" s="77">
-        <v>2777</v>
+        <v>211071</v>
       </c>
     </row>
     <row r="16">
@@ -3065,94 +3065,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>689</v>
+        <v>53183</v>
       </c>
       <c r="C16" s="7">
-        <v>673</v>
+        <v>51868</v>
       </c>
       <c r="D16" s="9">
-        <v>17</v>
+        <v>1316</v>
       </c>
       <c r="E16" s="11">
-        <v>755</v>
+        <v>58187</v>
       </c>
       <c r="F16" s="13">
-        <v>929</v>
+        <v>71951</v>
       </c>
       <c r="G16" s="15">
-        <v>-174</v>
+        <v>-13764</v>
       </c>
       <c r="H16" s="17">
-        <v>566</v>
+        <v>43928</v>
       </c>
       <c r="I16" s="19">
-        <v>407</v>
+        <v>31394</v>
       </c>
       <c r="J16" s="21">
-        <v>158</v>
+        <v>12534</v>
       </c>
       <c r="K16" s="23">
-        <v>128</v>
+        <v>9892</v>
       </c>
       <c r="L16" s="25">
-        <v>149</v>
+        <v>11543</v>
       </c>
       <c r="M16" s="27">
-        <v>-21</v>
+        <v>-1650</v>
       </c>
       <c r="N16" s="29">
-        <v>40</v>
+        <v>3102</v>
       </c>
       <c r="O16" s="31">
-        <v>29</v>
+        <v>2268</v>
       </c>
       <c r="P16" s="33">
-        <v>11</v>
+        <v>834</v>
       </c>
       <c r="Q16" s="35">
-        <v>61</v>
+        <v>4744</v>
       </c>
       <c r="R16" s="37">
-        <v>40</v>
+        <v>3069</v>
       </c>
       <c r="S16" s="39">
-        <v>21</v>
+        <v>1676</v>
       </c>
       <c r="T16" s="41">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="U16" s="43">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V16" s="45">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W16" s="47">
         <v>0</v>
       </c>
       <c r="X16" s="49">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="Y16" s="51">
-        <v>-1</v>
+        <v>-72</v>
       </c>
       <c r="Z16" s="53">
-        <v>311</v>
+        <v>24237</v>
       </c>
       <c r="AA16" s="55">
-        <v>133</v>
+        <v>10294</v>
       </c>
       <c r="AB16" s="57">
-        <v>178</v>
+        <v>13944</v>
       </c>
       <c r="AC16" s="59">
-        <v>25</v>
+        <v>1894</v>
       </c>
       <c r="AD16" s="61">
-        <v>54</v>
+        <v>4116</v>
       </c>
       <c r="AE16" s="63">
-        <v>-29</v>
+        <v>-2222</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>5</v>
+        <v>355</v>
       </c>
       <c r="AJ16" s="73">
-        <v>6</v>
+        <v>441</v>
       </c>
       <c r="AK16" s="75">
-        <v>-1</v>
+        <v>-86</v>
       </c>
       <c r="AL16" s="77">
-        <v>2015</v>
+        <v>155654</v>
       </c>
     </row>
     <row r="17">
@@ -3181,58 +3181,58 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>780</v>
+        <v>57823</v>
       </c>
       <c r="C17" s="7">
-        <v>1067</v>
+        <v>80634</v>
       </c>
       <c r="D17" s="9">
-        <v>-287</v>
+        <v>-22811</v>
       </c>
       <c r="E17" s="11">
-        <v>1266</v>
+        <v>96298</v>
       </c>
       <c r="F17" s="13">
-        <v>1216</v>
+        <v>90429</v>
       </c>
       <c r="G17" s="15">
-        <v>50</v>
+        <v>5869</v>
       </c>
       <c r="H17" s="17">
-        <v>554</v>
+        <v>41533</v>
       </c>
       <c r="I17" s="19">
-        <v>309</v>
+        <v>23922</v>
       </c>
       <c r="J17" s="21">
-        <v>245</v>
+        <v>17611</v>
       </c>
       <c r="K17" s="23">
-        <v>211</v>
+        <v>15558</v>
       </c>
       <c r="L17" s="25">
-        <v>163</v>
+        <v>12538</v>
       </c>
       <c r="M17" s="27">
-        <v>48</v>
+        <v>3020</v>
       </c>
       <c r="N17" s="29">
-        <v>32</v>
+        <v>2322</v>
       </c>
       <c r="O17" s="31">
-        <v>17</v>
+        <v>1369</v>
       </c>
       <c r="P17" s="33">
-        <v>14</v>
+        <v>953</v>
       </c>
       <c r="Q17" s="35">
-        <v>36</v>
+        <v>2754</v>
       </c>
       <c r="R17" s="37">
-        <v>43</v>
+        <v>3477</v>
       </c>
       <c r="S17" s="39">
-        <v>-7</v>
+        <v>-723</v>
       </c>
       <c r="T17" s="41">
         <v>0</v>
@@ -3253,22 +3253,22 @@
         <v>0</v>
       </c>
       <c r="Z17" s="53">
-        <v>228</v>
+        <v>17400</v>
       </c>
       <c r="AA17" s="55">
-        <v>81</v>
+        <v>6116</v>
       </c>
       <c r="AB17" s="57">
-        <v>147</v>
+        <v>11284</v>
       </c>
       <c r="AC17" s="59">
-        <v>48</v>
+        <v>3499</v>
       </c>
       <c r="AD17" s="61">
-        <v>6</v>
+        <v>423</v>
       </c>
       <c r="AE17" s="63">
-        <v>43</v>
+        <v>3077</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>8</v>
+        <v>585</v>
       </c>
       <c r="AJ17" s="73">
-        <v>16</v>
+        <v>1253</v>
       </c>
       <c r="AK17" s="75">
-        <v>-8</v>
+        <v>-669</v>
       </c>
       <c r="AL17" s="77">
-        <v>2608</v>
+        <v>196238</v>
       </c>
     </row>
     <row r="18">
@@ -3297,94 +3297,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1059</v>
+        <v>92307</v>
       </c>
       <c r="C18" s="7">
-        <v>1206</v>
+        <v>105094</v>
       </c>
       <c r="D18" s="9">
-        <v>-148</v>
+        <v>-12787</v>
       </c>
       <c r="E18" s="11">
-        <v>970</v>
+        <v>84937</v>
       </c>
       <c r="F18" s="13">
-        <v>1070</v>
+        <v>94052</v>
       </c>
       <c r="G18" s="15">
-        <v>-99</v>
+        <v>-9115</v>
       </c>
       <c r="H18" s="17">
-        <v>510</v>
+        <v>44892</v>
       </c>
       <c r="I18" s="19">
-        <v>260</v>
+        <v>22747</v>
       </c>
       <c r="J18" s="21">
-        <v>250</v>
+        <v>22144</v>
       </c>
       <c r="K18" s="23">
-        <v>178</v>
+        <v>15521</v>
       </c>
       <c r="L18" s="25">
-        <v>135</v>
+        <v>11844</v>
       </c>
       <c r="M18" s="27">
-        <v>43</v>
+        <v>3676</v>
       </c>
       <c r="N18" s="29">
-        <v>22</v>
+        <v>1906</v>
       </c>
       <c r="O18" s="31">
-        <v>9</v>
+        <v>833</v>
       </c>
       <c r="P18" s="33">
-        <v>12</v>
+        <v>1072</v>
       </c>
       <c r="Q18" s="35">
-        <v>49</v>
+        <v>4375</v>
       </c>
       <c r="R18" s="37">
-        <v>21</v>
+        <v>1838</v>
       </c>
       <c r="S18" s="39">
-        <v>28</v>
+        <v>2537</v>
       </c>
       <c r="T18" s="41">
-        <v>6</v>
+        <v>560</v>
       </c>
       <c r="U18" s="43">
-        <v>6</v>
+        <v>516</v>
       </c>
       <c r="V18" s="45">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="W18" s="47">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="X18" s="49">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="Y18" s="51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="53">
-        <v>243</v>
+        <v>21484</v>
       </c>
       <c r="AA18" s="55">
-        <v>80</v>
+        <v>6983</v>
       </c>
       <c r="AB18" s="57">
-        <v>163</v>
+        <v>14501</v>
       </c>
       <c r="AC18" s="59">
-        <v>10</v>
+        <v>919</v>
       </c>
       <c r="AD18" s="61">
-        <v>7</v>
+        <v>614</v>
       </c>
       <c r="AE18" s="63">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>9</v>
+        <v>795</v>
       </c>
       <c r="AJ18" s="73">
-        <v>12</v>
+        <v>1036</v>
       </c>
       <c r="AK18" s="75">
-        <v>-3</v>
+        <v>-242</v>
       </c>
       <c r="AL18" s="77">
-        <v>2547</v>
+        <v>222929</v>
       </c>
     </row>
     <row r="19">
@@ -3413,94 +3413,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>718</v>
+        <v>63381</v>
       </c>
       <c r="C19" s="7">
-        <v>516</v>
+        <v>45454</v>
       </c>
       <c r="D19" s="9">
-        <v>202</v>
+        <v>17927</v>
       </c>
       <c r="E19" s="11">
-        <v>889</v>
+        <v>78360</v>
       </c>
       <c r="F19" s="13">
-        <v>1154</v>
+        <v>102037</v>
       </c>
       <c r="G19" s="15">
-        <v>-264</v>
+        <v>-23677</v>
       </c>
       <c r="H19" s="17">
-        <v>331</v>
+        <v>29395</v>
       </c>
       <c r="I19" s="19">
-        <v>275</v>
+        <v>24229</v>
       </c>
       <c r="J19" s="21">
+        <v>5166</v>
+      </c>
+      <c r="K19" s="23">
+        <v>10322</v>
+      </c>
+      <c r="L19" s="25">
+        <v>14001</v>
+      </c>
+      <c r="M19" s="27">
+        <v>-3679</v>
+      </c>
+      <c r="N19" s="29">
+        <v>2535</v>
+      </c>
+      <c r="O19" s="31">
+        <v>1651</v>
+      </c>
+      <c r="P19" s="33">
+        <v>884</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>3163</v>
+      </c>
+      <c r="R19" s="37">
+        <v>1649</v>
+      </c>
+      <c r="S19" s="39">
+        <v>1514</v>
+      </c>
+      <c r="T19" s="41">
         <v>56</v>
       </c>
-      <c r="K19" s="23">
-        <v>117</v>
-      </c>
-      <c r="L19" s="25">
-        <v>159</v>
-      </c>
-      <c r="M19" s="27">
-        <v>-42</v>
-      </c>
-      <c r="N19" s="29">
-        <v>28</v>
-      </c>
-      <c r="O19" s="31">
-        <v>19</v>
-      </c>
-      <c r="P19" s="33">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="35">
-        <v>35</v>
-      </c>
-      <c r="R19" s="37">
-        <v>19</v>
-      </c>
-      <c r="S19" s="39">
-        <v>17</v>
-      </c>
-      <c r="T19" s="41">
-        <v>1</v>
-      </c>
       <c r="U19" s="43">
         <v>0</v>
       </c>
       <c r="V19" s="45">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="W19" s="47">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="X19" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="51">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="Z19" s="53">
-        <v>125</v>
+        <v>11036</v>
       </c>
       <c r="AA19" s="55">
-        <v>68</v>
+        <v>6021</v>
       </c>
       <c r="AB19" s="57">
-        <v>56</v>
+        <v>5014</v>
       </c>
       <c r="AC19" s="59">
-        <v>25</v>
+        <v>2185</v>
       </c>
       <c r="AD19" s="61">
-        <v>10</v>
+        <v>906</v>
       </c>
       <c r="AE19" s="63">
-        <v>14</v>
+        <v>1279</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3512,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>10</v>
+        <v>895</v>
       </c>
       <c r="AJ19" s="73">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="AK19" s="75">
-        <v>7</v>
+        <v>584</v>
       </c>
       <c r="AL19" s="77">
-        <v>1949</v>
+        <v>172031</v>
       </c>
     </row>
     <row r="20">
@@ -3529,94 +3529,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>1202</v>
+        <v>106847</v>
       </c>
       <c r="C20" s="7">
-        <v>987</v>
+        <v>87831</v>
       </c>
       <c r="D20" s="9">
-        <v>214</v>
+        <v>19015</v>
       </c>
       <c r="E20" s="11">
-        <v>1353</v>
+        <v>120509</v>
       </c>
       <c r="F20" s="13">
-        <v>1625</v>
+        <v>144918</v>
       </c>
       <c r="G20" s="15">
-        <v>-273</v>
+        <v>-24409</v>
       </c>
       <c r="H20" s="17">
-        <v>355</v>
+        <v>31743</v>
       </c>
       <c r="I20" s="19">
-        <v>298</v>
+        <v>26452</v>
       </c>
       <c r="J20" s="21">
-        <v>57</v>
+        <v>5291</v>
       </c>
       <c r="K20" s="23">
-        <v>152</v>
+        <v>13586</v>
       </c>
       <c r="L20" s="25">
-        <v>135</v>
+        <v>11904</v>
       </c>
       <c r="M20" s="27">
-        <v>17</v>
+        <v>1682</v>
       </c>
       <c r="N20" s="29">
-        <v>21</v>
+        <v>1850</v>
       </c>
       <c r="O20" s="31">
-        <v>18</v>
+        <v>1617</v>
       </c>
       <c r="P20" s="33">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="35">
-        <v>40</v>
+        <v>3626</v>
       </c>
       <c r="R20" s="37">
-        <v>28</v>
+        <v>2503</v>
       </c>
       <c r="S20" s="39">
-        <v>12</v>
+        <v>1122</v>
       </c>
       <c r="T20" s="41">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="U20" s="43">
         <v>0</v>
       </c>
       <c r="V20" s="45">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="W20" s="47">
         <v>0</v>
       </c>
       <c r="X20" s="49">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="Y20" s="51">
-        <v>-2</v>
+        <v>-195</v>
       </c>
       <c r="Z20" s="53">
-        <v>106</v>
+        <v>9472</v>
       </c>
       <c r="AA20" s="55">
-        <v>91</v>
+        <v>8089</v>
       </c>
       <c r="AB20" s="57">
-        <v>16</v>
+        <v>1383</v>
       </c>
       <c r="AC20" s="59">
-        <v>33</v>
+        <v>2933</v>
       </c>
       <c r="AD20" s="61">
-        <v>24</v>
+        <v>2144</v>
       </c>
       <c r="AE20" s="63">
-        <v>9</v>
+        <v>789</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3628,16 +3628,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>8</v>
+        <v>738</v>
       </c>
       <c r="AJ20" s="73">
-        <v>7</v>
+        <v>635</v>
       </c>
       <c r="AK20" s="75">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="AL20" s="77">
-        <v>2918</v>
+        <v>259837</v>
       </c>
     </row>
     <row r="21">
@@ -3645,58 +3645,58 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>1205</v>
+        <v>97843</v>
       </c>
       <c r="C21" s="7">
-        <v>1376</v>
+        <v>112587</v>
       </c>
       <c r="D21" s="9">
-        <v>-171</v>
+        <v>-14745</v>
       </c>
       <c r="E21" s="11">
-        <v>2188</v>
+        <v>180578</v>
       </c>
       <c r="F21" s="13">
-        <v>2046</v>
+        <v>168211</v>
       </c>
       <c r="G21" s="15">
-        <v>142</v>
+        <v>12366</v>
       </c>
       <c r="H21" s="17">
-        <v>396</v>
+        <v>32294</v>
       </c>
       <c r="I21" s="19">
-        <v>360</v>
+        <v>29328</v>
       </c>
       <c r="J21" s="21">
-        <v>36</v>
+        <v>2966</v>
       </c>
       <c r="K21" s="23">
-        <v>133</v>
+        <v>10660</v>
       </c>
       <c r="L21" s="25">
-        <v>166</v>
+        <v>13323</v>
       </c>
       <c r="M21" s="27">
-        <v>-34</v>
+        <v>-2664</v>
       </c>
       <c r="N21" s="29">
-        <v>18</v>
+        <v>1519</v>
       </c>
       <c r="O21" s="31">
-        <v>8</v>
+        <v>644</v>
       </c>
       <c r="P21" s="33">
-        <v>10</v>
+        <v>874</v>
       </c>
       <c r="Q21" s="35">
-        <v>40</v>
+        <v>3326</v>
       </c>
       <c r="R21" s="37">
-        <v>17</v>
+        <v>1415</v>
       </c>
       <c r="S21" s="39">
-        <v>23</v>
+        <v>1911</v>
       </c>
       <c r="T21" s="41">
         <v>0</v>
@@ -3717,22 +3717,22 @@
         <v>0</v>
       </c>
       <c r="Z21" s="53">
-        <v>141</v>
+        <v>11458</v>
       </c>
       <c r="AA21" s="55">
-        <v>71</v>
+        <v>5764</v>
       </c>
       <c r="AB21" s="57">
-        <v>70</v>
+        <v>5694</v>
       </c>
       <c r="AC21" s="59">
-        <v>64</v>
+        <v>5332</v>
       </c>
       <c r="AD21" s="61">
-        <v>97</v>
+        <v>8181</v>
       </c>
       <c r="AE21" s="63">
-        <v>-33</v>
+        <v>-2848</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3744,16 +3744,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>11</v>
+        <v>909</v>
       </c>
       <c r="AJ21" s="73">
-        <v>18</v>
+        <v>1498</v>
       </c>
       <c r="AK21" s="75">
-        <v>-7</v>
+        <v>-588</v>
       </c>
       <c r="AL21" s="77">
-        <v>3800</v>
+        <v>311624</v>
       </c>
     </row>
     <row r="22">
@@ -3761,94 +3761,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>832</v>
+        <v>70684</v>
       </c>
       <c r="C22" s="7">
-        <v>944</v>
+        <v>83434</v>
       </c>
       <c r="D22" s="9">
-        <v>-112</v>
+        <v>-12750</v>
       </c>
       <c r="E22" s="11">
-        <v>2533</v>
+        <v>222943</v>
       </c>
       <c r="F22" s="13">
-        <v>2172</v>
+        <v>188188</v>
       </c>
       <c r="G22" s="15">
-        <v>361</v>
+        <v>34754</v>
       </c>
       <c r="H22" s="17">
-        <v>332</v>
+        <v>28881</v>
       </c>
       <c r="I22" s="19">
-        <v>594</v>
+        <v>52167</v>
       </c>
       <c r="J22" s="21">
-        <v>-262</v>
+        <v>-23286</v>
       </c>
       <c r="K22" s="23">
-        <v>141</v>
+        <v>12173</v>
       </c>
       <c r="L22" s="25">
-        <v>161</v>
+        <v>14408</v>
       </c>
       <c r="M22" s="27">
-        <v>-20</v>
+        <v>-2235</v>
       </c>
       <c r="N22" s="29">
-        <v>19</v>
+        <v>1663</v>
       </c>
       <c r="O22" s="31">
-        <v>85</v>
+        <v>7190</v>
       </c>
       <c r="P22" s="33">
-        <v>-66</v>
+        <v>-5527</v>
       </c>
       <c r="Q22" s="35">
-        <v>10</v>
+        <v>866</v>
       </c>
       <c r="R22" s="37">
-        <v>46</v>
+        <v>4147</v>
       </c>
       <c r="S22" s="39">
-        <v>-36</v>
+        <v>-3281</v>
       </c>
       <c r="T22" s="41">
         <v>0</v>
       </c>
       <c r="U22" s="43">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="V22" s="45">
-        <v>-1</v>
+        <v>-84</v>
       </c>
       <c r="W22" s="47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X22" s="49">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="Y22" s="51">
-        <v>-2</v>
+        <v>-134</v>
       </c>
       <c r="Z22" s="53">
-        <v>152</v>
+        <v>13420</v>
       </c>
       <c r="AA22" s="55">
-        <v>279</v>
+        <v>24423</v>
       </c>
       <c r="AB22" s="57">
-        <v>-127</v>
+        <v>-11003</v>
       </c>
       <c r="AC22" s="59">
-        <v>9</v>
+        <v>739</v>
       </c>
       <c r="AD22" s="61">
-        <v>19</v>
+        <v>1761</v>
       </c>
       <c r="AE22" s="63">
-        <v>-11</v>
+        <v>-1022</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3860,16 +3860,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>39</v>
+        <v>3432</v>
       </c>
       <c r="AJ22" s="73">
-        <v>26</v>
+        <v>2151</v>
       </c>
       <c r="AK22" s="75">
-        <v>13</v>
+        <v>1281</v>
       </c>
       <c r="AL22" s="77">
-        <v>3736</v>
+        <v>325940</v>
       </c>
     </row>
     <row r="23">
@@ -3877,58 +3877,58 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>987</v>
+        <v>98476</v>
       </c>
       <c r="C23" s="7">
-        <v>1026</v>
+        <v>102433</v>
       </c>
       <c r="D23" s="9">
-        <v>-39</v>
+        <v>-3957</v>
       </c>
       <c r="E23" s="11">
-        <v>2834</v>
+        <v>283600</v>
       </c>
       <c r="F23" s="13">
-        <v>2793</v>
+        <v>280218</v>
       </c>
       <c r="G23" s="15">
-        <v>41</v>
+        <v>3382</v>
       </c>
       <c r="H23" s="17">
-        <v>526</v>
+        <v>52942</v>
       </c>
       <c r="I23" s="19">
-        <v>499</v>
+        <v>49545</v>
       </c>
       <c r="J23" s="21">
-        <v>27</v>
+        <v>3397</v>
       </c>
       <c r="K23" s="23">
-        <v>207</v>
+        <v>20571</v>
       </c>
       <c r="L23" s="25">
-        <v>164</v>
+        <v>16143</v>
       </c>
       <c r="M23" s="27">
-        <v>43</v>
+        <v>4428</v>
       </c>
       <c r="N23" s="29">
-        <v>32</v>
+        <v>3333</v>
       </c>
       <c r="O23" s="31">
-        <v>22</v>
+        <v>2221</v>
       </c>
       <c r="P23" s="33">
-        <v>10</v>
+        <v>1112</v>
       </c>
       <c r="Q23" s="35">
-        <v>51</v>
+        <v>5222</v>
       </c>
       <c r="R23" s="37">
-        <v>83</v>
+        <v>8209</v>
       </c>
       <c r="S23" s="39">
-        <v>-32</v>
+        <v>-2987</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="X23" s="49">
-        <v>7</v>
+        <v>713</v>
       </c>
       <c r="Y23" s="51">
-        <v>-7</v>
+        <v>-713</v>
       </c>
       <c r="Z23" s="53">
-        <v>178</v>
+        <v>17730</v>
       </c>
       <c r="AA23" s="55">
-        <v>166</v>
+        <v>16469</v>
       </c>
       <c r="AB23" s="57">
-        <v>12</v>
+        <v>1262</v>
       </c>
       <c r="AC23" s="59">
-        <v>59</v>
+        <v>6086</v>
       </c>
       <c r="AD23" s="61">
-        <v>58</v>
+        <v>5791</v>
       </c>
       <c r="AE23" s="63">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>23</v>
+        <v>2255</v>
       </c>
       <c r="AJ23" s="73">
-        <v>52</v>
+        <v>5076</v>
       </c>
       <c r="AK23" s="75">
-        <v>-29</v>
+        <v>-2821</v>
       </c>
       <c r="AL23" s="77">
-        <v>4370</v>
+        <v>437272</v>
       </c>
     </row>
     <row r="24">
@@ -3993,94 +3993,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>990</v>
+        <v>97712</v>
       </c>
       <c r="C24" s="7">
-        <v>1105</v>
+        <v>108549</v>
       </c>
       <c r="D24" s="9">
-        <v>-115</v>
+        <v>-10837</v>
       </c>
       <c r="E24" s="11">
-        <v>2615</v>
+        <v>258584</v>
       </c>
       <c r="F24" s="13">
-        <v>2526</v>
+        <v>250414</v>
       </c>
       <c r="G24" s="15">
-        <v>90</v>
+        <v>8170</v>
       </c>
       <c r="H24" s="17">
-        <v>443</v>
+        <v>43931</v>
       </c>
       <c r="I24" s="19">
-        <v>434</v>
+        <v>42863</v>
       </c>
       <c r="J24" s="21">
-        <v>9</v>
+        <v>1068</v>
       </c>
       <c r="K24" s="23">
+        <v>19564</v>
+      </c>
+      <c r="L24" s="25">
+        <v>16503</v>
+      </c>
+      <c r="M24" s="27">
+        <v>3061</v>
+      </c>
+      <c r="N24" s="29">
+        <v>904</v>
+      </c>
+      <c r="O24" s="31">
+        <v>2128</v>
+      </c>
+      <c r="P24" s="33">
+        <v>-1225</v>
+      </c>
+      <c r="Q24" s="35">
+        <v>4660</v>
+      </c>
+      <c r="R24" s="37">
+        <v>3845</v>
+      </c>
+      <c r="S24" s="39">
+        <v>814</v>
+      </c>
+      <c r="T24" s="41">
+        <v>0</v>
+      </c>
+      <c r="U24" s="43">
+        <v>31</v>
+      </c>
+      <c r="V24" s="45">
+        <v>-31</v>
+      </c>
+      <c r="W24" s="47">
+        <v>31</v>
+      </c>
+      <c r="X24" s="49">
         <v>198</v>
       </c>
-      <c r="L24" s="25">
-        <v>167</v>
-      </c>
-      <c r="M24" s="27">
-        <v>31</v>
-      </c>
-      <c r="N24" s="29">
-        <v>9</v>
-      </c>
-      <c r="O24" s="31">
-        <v>22</v>
-      </c>
-      <c r="P24" s="33">
-        <v>-13</v>
-      </c>
-      <c r="Q24" s="35">
-        <v>47</v>
-      </c>
-      <c r="R24" s="37">
-        <v>39</v>
-      </c>
-      <c r="S24" s="39">
-        <v>7</v>
-      </c>
-      <c r="T24" s="41">
-        <v>0</v>
-      </c>
-      <c r="U24" s="43">
-        <v>0</v>
-      </c>
-      <c r="V24" s="45">
-        <v>0</v>
-      </c>
-      <c r="W24" s="47">
-        <v>0</v>
-      </c>
-      <c r="X24" s="49">
-        <v>2</v>
-      </c>
       <c r="Y24" s="51">
-        <v>-2</v>
+        <v>-167</v>
       </c>
       <c r="Z24" s="53">
-        <v>159</v>
+        <v>15739</v>
       </c>
       <c r="AA24" s="55">
-        <v>156</v>
+        <v>15418</v>
       </c>
       <c r="AB24" s="57">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="AC24" s="59">
-        <v>30</v>
+        <v>3033</v>
       </c>
       <c r="AD24" s="61">
-        <v>48</v>
+        <v>4741</v>
       </c>
       <c r="AE24" s="63">
-        <v>-18</v>
+        <v>-1708</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4092,16 +4092,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>39</v>
+        <v>3870</v>
       </c>
       <c r="AJ24" s="73">
-        <v>22</v>
+        <v>2271</v>
       </c>
       <c r="AK24" s="75">
-        <v>16</v>
+        <v>1599</v>
       </c>
       <c r="AL24" s="77">
-        <v>4087</v>
+        <v>404097</v>
       </c>
     </row>
     <row r="25">
@@ -4109,58 +4109,58 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>951</v>
+        <v>93305</v>
       </c>
       <c r="C25" s="7">
-        <v>999</v>
+        <v>98161</v>
       </c>
       <c r="D25" s="9">
-        <v>-48</v>
+        <v>-4856</v>
       </c>
       <c r="E25" s="11">
-        <v>2201</v>
+        <v>215301</v>
       </c>
       <c r="F25" s="13">
-        <v>2008</v>
+        <v>196608</v>
       </c>
       <c r="G25" s="15">
-        <v>194</v>
+        <v>18694</v>
       </c>
       <c r="H25" s="17">
-        <v>375</v>
+        <v>36958</v>
       </c>
       <c r="I25" s="19">
-        <v>516</v>
+        <v>50397</v>
       </c>
       <c r="J25" s="21">
-        <v>-141</v>
+        <v>-13439</v>
       </c>
       <c r="K25" s="23">
-        <v>164</v>
+        <v>16184</v>
       </c>
       <c r="L25" s="25">
-        <v>137</v>
+        <v>13502</v>
       </c>
       <c r="M25" s="27">
-        <v>27</v>
+        <v>2682</v>
       </c>
       <c r="N25" s="29">
-        <v>12</v>
+        <v>1224</v>
       </c>
       <c r="O25" s="31">
-        <v>37</v>
+        <v>3597</v>
       </c>
       <c r="P25" s="33">
-        <v>-25</v>
+        <v>-2373</v>
       </c>
       <c r="Q25" s="35">
-        <v>21</v>
+        <v>2103</v>
       </c>
       <c r="R25" s="37">
-        <v>30</v>
+        <v>2890</v>
       </c>
       <c r="S25" s="39">
-        <v>-9</v>
+        <v>-787</v>
       </c>
       <c r="T25" s="41">
         <v>0</v>
@@ -4172,31 +4172,31 @@
         <v>0</v>
       </c>
       <c r="W25" s="47">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X25" s="49">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="Y25" s="51">
-        <v>-2</v>
+        <v>-217</v>
       </c>
       <c r="Z25" s="53">
-        <v>160</v>
+        <v>15788</v>
       </c>
       <c r="AA25" s="55">
-        <v>296</v>
+        <v>28909</v>
       </c>
       <c r="AB25" s="57">
-        <v>-136</v>
+        <v>-13121</v>
       </c>
       <c r="AC25" s="59">
-        <v>17</v>
+        <v>1634</v>
       </c>
       <c r="AD25" s="61">
-        <v>13</v>
+        <v>1259</v>
       </c>
       <c r="AE25" s="63">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4208,16 +4208,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>10</v>
+        <v>991</v>
       </c>
       <c r="AJ25" s="73">
-        <v>14</v>
+        <v>1389</v>
       </c>
       <c r="AK25" s="75">
-        <v>-4</v>
+        <v>-398</v>
       </c>
       <c r="AL25" s="77">
-        <v>3537</v>
+        <v>346555</v>
       </c>
     </row>
     <row r="26">
@@ -4225,58 +4225,58 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>706</v>
+        <v>80575</v>
       </c>
       <c r="C26" s="7">
-        <v>980</v>
+        <v>110357</v>
       </c>
       <c r="D26" s="9">
-        <v>-274</v>
+        <v>-29782</v>
       </c>
       <c r="E26" s="11">
-        <v>3180</v>
+        <v>360153</v>
       </c>
       <c r="F26" s="13">
-        <v>2263</v>
+        <v>258368</v>
       </c>
       <c r="G26" s="15">
-        <v>917</v>
+        <v>101785</v>
       </c>
       <c r="H26" s="17">
-        <v>445</v>
+        <v>50906</v>
       </c>
       <c r="I26" s="19">
-        <v>1071</v>
+        <v>121124</v>
       </c>
       <c r="J26" s="21">
-        <v>-627</v>
+        <v>-70218</v>
       </c>
       <c r="K26" s="23">
-        <v>166</v>
+        <v>18964</v>
       </c>
       <c r="L26" s="25">
-        <v>224</v>
+        <v>25432</v>
       </c>
       <c r="M26" s="27">
-        <v>-58</v>
+        <v>-6469</v>
       </c>
       <c r="N26" s="29">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="O26" s="31">
-        <v>55</v>
+        <v>6095</v>
       </c>
       <c r="P26" s="33">
-        <v>-37</v>
+        <v>-4078</v>
       </c>
       <c r="Q26" s="35">
-        <v>18</v>
+        <v>2074</v>
       </c>
       <c r="R26" s="37">
-        <v>500</v>
+        <v>56817</v>
       </c>
       <c r="S26" s="39">
-        <v>-482</v>
+        <v>-54743</v>
       </c>
       <c r="T26" s="41">
         <v>0</v>
@@ -4288,31 +4288,31 @@
         <v>0</v>
       </c>
       <c r="W26" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X26" s="49">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="Y26" s="51">
-        <v>-2</v>
+        <v>-180</v>
       </c>
       <c r="Z26" s="53">
-        <v>229</v>
+        <v>26270</v>
       </c>
       <c r="AA26" s="55">
-        <v>208</v>
+        <v>23094</v>
       </c>
       <c r="AB26" s="57">
-        <v>22</v>
+        <v>3176</v>
       </c>
       <c r="AC26" s="59">
-        <v>14</v>
+        <v>1577</v>
       </c>
       <c r="AD26" s="61">
-        <v>84</v>
+        <v>9502</v>
       </c>
       <c r="AE26" s="63">
-        <v>-70</v>
+        <v>-7925</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4324,16 +4324,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>17</v>
+        <v>1967</v>
       </c>
       <c r="AJ26" s="73">
-        <v>33</v>
+        <v>3753</v>
       </c>
       <c r="AK26" s="75">
-        <v>-16</v>
+        <v>-1786</v>
       </c>
       <c r="AL26" s="77">
-        <v>4348</v>
+        <v>493602</v>
       </c>
     </row>
     <row r="27">
@@ -4341,94 +4341,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>1077</v>
+        <v>133213</v>
       </c>
       <c r="C27" s="7">
-        <v>1128</v>
+        <v>137898</v>
       </c>
       <c r="D27" s="9">
-        <v>-51</v>
+        <v>-4685</v>
       </c>
       <c r="E27" s="11">
-        <v>5699</v>
+        <v>702190</v>
       </c>
       <c r="F27" s="13">
-        <v>5875</v>
+        <v>724584</v>
       </c>
       <c r="G27" s="15">
-        <v>-175</v>
+        <v>-22394</v>
       </c>
       <c r="H27" s="17">
-        <v>657</v>
+        <v>79672</v>
       </c>
       <c r="I27" s="19">
-        <v>428</v>
+        <v>51900</v>
       </c>
       <c r="J27" s="21">
-        <v>230</v>
+        <v>27773</v>
       </c>
       <c r="K27" s="23">
-        <v>237</v>
+        <v>28746</v>
       </c>
       <c r="L27" s="25">
-        <v>204</v>
+        <v>24808</v>
       </c>
       <c r="M27" s="27">
-        <v>33</v>
+        <v>3938</v>
       </c>
       <c r="N27" s="29">
-        <v>37</v>
+        <v>4614</v>
       </c>
       <c r="O27" s="31">
-        <v>23</v>
+        <v>2760</v>
       </c>
       <c r="P27" s="33">
-        <v>15</v>
+        <v>1854</v>
       </c>
       <c r="Q27" s="35">
-        <v>44</v>
+        <v>5380</v>
       </c>
       <c r="R27" s="37">
-        <v>31</v>
+        <v>3839</v>
       </c>
       <c r="S27" s="39">
-        <v>12</v>
+        <v>1541</v>
       </c>
       <c r="T27" s="41">
         <v>0</v>
       </c>
       <c r="U27" s="43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V27" s="45">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="W27" s="47">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="X27" s="49">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="Y27" s="51">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Z27" s="53">
-        <v>316</v>
+        <v>38063</v>
       </c>
       <c r="AA27" s="55">
-        <v>143</v>
+        <v>17265</v>
       </c>
       <c r="AB27" s="57">
-        <v>173</v>
+        <v>20798</v>
       </c>
       <c r="AC27" s="59">
-        <v>22</v>
+        <v>2611</v>
       </c>
       <c r="AD27" s="61">
-        <v>25</v>
+        <v>3006</v>
       </c>
       <c r="AE27" s="63">
-        <v>-3</v>
+        <v>-395</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4440,16 +4440,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>55</v>
+        <v>6634</v>
       </c>
       <c r="AJ27" s="73">
-        <v>59</v>
+        <v>7328</v>
       </c>
       <c r="AK27" s="75">
-        <v>-4</v>
+        <v>-694</v>
       </c>
       <c r="AL27" s="77">
-        <v>7488</v>
+        <v>921710</v>
       </c>
     </row>
     <row r="28">
@@ -4457,94 +4457,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>730</v>
+        <v>93076</v>
       </c>
       <c r="C28" s="7">
-        <v>1071</v>
+        <v>136987</v>
       </c>
       <c r="D28" s="9">
-        <v>-342</v>
+        <v>-43911</v>
       </c>
       <c r="E28" s="11">
-        <v>5491</v>
+        <v>702988</v>
       </c>
       <c r="F28" s="13">
-        <v>5622</v>
+        <v>720837</v>
       </c>
       <c r="G28" s="15">
-        <v>-131</v>
+        <v>-17849</v>
       </c>
       <c r="H28" s="17">
-        <v>977</v>
+        <v>125579</v>
       </c>
       <c r="I28" s="19">
-        <v>524</v>
+        <v>66475</v>
       </c>
       <c r="J28" s="21">
-        <v>452</v>
+        <v>59104</v>
       </c>
       <c r="K28" s="23">
-        <v>222</v>
+        <v>28310</v>
       </c>
       <c r="L28" s="25">
-        <v>192</v>
+        <v>24387</v>
       </c>
       <c r="M28" s="27">
-        <v>30</v>
+        <v>3923</v>
       </c>
       <c r="N28" s="29">
-        <v>66</v>
+        <v>8605</v>
       </c>
       <c r="O28" s="31">
-        <v>17</v>
+        <v>2110</v>
       </c>
       <c r="P28" s="33">
-        <v>49</v>
+        <v>6495</v>
       </c>
       <c r="Q28" s="35">
-        <v>173</v>
+        <v>22553</v>
       </c>
       <c r="R28" s="37">
-        <v>89</v>
+        <v>11153</v>
       </c>
       <c r="S28" s="39">
-        <v>85</v>
+        <v>11400</v>
       </c>
       <c r="T28" s="41">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="U28" s="43">
-        <v>5</v>
+        <v>604</v>
       </c>
       <c r="V28" s="45">
-        <v>-3</v>
+        <v>-432</v>
       </c>
       <c r="W28" s="47">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X28" s="49">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="Y28" s="51">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Z28" s="53">
-        <v>408</v>
+        <v>52131</v>
       </c>
       <c r="AA28" s="55">
-        <v>127</v>
+        <v>16005</v>
       </c>
       <c r="AB28" s="57">
-        <v>281</v>
+        <v>36126</v>
       </c>
       <c r="AC28" s="59">
-        <v>105</v>
+        <v>13784</v>
       </c>
       <c r="AD28" s="61">
-        <v>94</v>
+        <v>12140</v>
       </c>
       <c r="AE28" s="63">
-        <v>11</v>
+        <v>1644</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4556,16 +4556,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>51</v>
+        <v>6603</v>
       </c>
       <c r="AJ28" s="73">
-        <v>31</v>
+        <v>3947</v>
       </c>
       <c r="AK28" s="75">
-        <v>21</v>
+        <v>2656</v>
       </c>
       <c r="AL28" s="77">
-        <v>7248</v>
+        <v>928246</v>
       </c>
     </row>
     <row r="29">
@@ -4573,94 +4573,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>1193</v>
+        <v>143341</v>
       </c>
       <c r="C29" s="7">
-        <v>1461</v>
+        <v>176509</v>
       </c>
       <c r="D29" s="9">
-        <v>-268</v>
+        <v>-33168</v>
       </c>
       <c r="E29" s="11">
-        <v>5781</v>
+        <v>698294</v>
       </c>
       <c r="F29" s="13">
-        <v>6511</v>
+        <v>786119</v>
       </c>
       <c r="G29" s="15">
-        <v>-731</v>
+        <v>-87825</v>
       </c>
       <c r="H29" s="17">
-        <v>1656</v>
+        <v>200446</v>
       </c>
       <c r="I29" s="19">
-        <v>621</v>
+        <v>74936</v>
       </c>
       <c r="J29" s="21">
-        <v>1035</v>
+        <v>125510</v>
       </c>
       <c r="K29" s="23">
-        <v>189</v>
+        <v>22739</v>
       </c>
       <c r="L29" s="25">
-        <v>220</v>
+        <v>26522</v>
       </c>
       <c r="M29" s="27">
-        <v>-31</v>
+        <v>-3783</v>
       </c>
       <c r="N29" s="29">
-        <v>135</v>
+        <v>16363</v>
       </c>
       <c r="O29" s="31">
-        <v>30</v>
+        <v>3667</v>
       </c>
       <c r="P29" s="33">
-        <v>105</v>
+        <v>12697</v>
       </c>
       <c r="Q29" s="35">
-        <v>318</v>
+        <v>38441</v>
       </c>
       <c r="R29" s="37">
-        <v>59</v>
+        <v>7039</v>
       </c>
       <c r="S29" s="39">
-        <v>259</v>
+        <v>31401</v>
       </c>
       <c r="T29" s="41">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="U29" s="43">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V29" s="45">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="W29" s="47">
-        <v>4</v>
+        <v>487</v>
       </c>
       <c r="X29" s="49">
-        <v>3</v>
+        <v>327</v>
       </c>
       <c r="Y29" s="51">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="Z29" s="53">
-        <v>837</v>
+        <v>101530</v>
       </c>
       <c r="AA29" s="55">
-        <v>148</v>
+        <v>17959</v>
       </c>
       <c r="AB29" s="57">
-        <v>689</v>
+        <v>83571</v>
       </c>
       <c r="AC29" s="59">
-        <v>171</v>
+        <v>20576</v>
       </c>
       <c r="AD29" s="61">
-        <v>162</v>
+        <v>19395</v>
       </c>
       <c r="AE29" s="63">
-        <v>10</v>
+        <v>1181</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4672,16 +4672,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>46</v>
+        <v>5593</v>
       </c>
       <c r="AJ29" s="73">
-        <v>83</v>
+        <v>10110</v>
       </c>
       <c r="AK29" s="75">
-        <v>-37</v>
+        <v>-4517</v>
       </c>
       <c r="AL29" s="77">
-        <v>8676</v>
+        <v>1047674</v>
       </c>
     </row>
     <row r="30">
@@ -4689,94 +4689,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>997</v>
+        <v>110108</v>
       </c>
       <c r="C30" s="7">
-        <v>1351</v>
+        <v>147534</v>
       </c>
       <c r="D30" s="9">
-        <v>-354</v>
+        <v>-37426</v>
       </c>
       <c r="E30" s="11">
-        <v>4043</v>
+        <v>441955</v>
       </c>
       <c r="F30" s="13">
-        <v>3792</v>
+        <v>416339</v>
       </c>
       <c r="G30" s="15">
-        <v>251</v>
+        <v>25616</v>
       </c>
       <c r="H30" s="17">
-        <v>439</v>
+        <v>48522</v>
       </c>
       <c r="I30" s="19">
-        <v>342</v>
+        <v>37360</v>
       </c>
       <c r="J30" s="21">
-        <v>97</v>
+        <v>11162</v>
       </c>
       <c r="K30" s="23">
-        <v>151</v>
+        <v>16630</v>
       </c>
       <c r="L30" s="25">
-        <v>121</v>
+        <v>13316</v>
       </c>
       <c r="M30" s="27">
-        <v>30</v>
+        <v>3314</v>
       </c>
       <c r="N30" s="29">
-        <v>18</v>
+        <v>2032</v>
       </c>
       <c r="O30" s="31">
-        <v>16</v>
+        <v>1728</v>
       </c>
       <c r="P30" s="33">
-        <v>3</v>
+        <v>304</v>
       </c>
       <c r="Q30" s="35">
-        <v>24</v>
+        <v>2705</v>
       </c>
       <c r="R30" s="37">
-        <v>27</v>
+        <v>2973</v>
       </c>
       <c r="S30" s="39">
-        <v>-3</v>
+        <v>-267</v>
       </c>
       <c r="T30" s="41">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="U30" s="43">
         <v>0</v>
       </c>
       <c r="V30" s="45">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="W30" s="47">
-        <v>3</v>
+        <v>339</v>
       </c>
       <c r="X30" s="49">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="Y30" s="51">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z30" s="53">
-        <v>187</v>
+        <v>20643</v>
       </c>
       <c r="AA30" s="55">
-        <v>120</v>
+        <v>13154</v>
       </c>
       <c r="AB30" s="57">
-        <v>68</v>
+        <v>7489</v>
       </c>
       <c r="AC30" s="59">
-        <v>54</v>
+        <v>6060</v>
       </c>
       <c r="AD30" s="61">
-        <v>55</v>
+        <v>5887</v>
       </c>
       <c r="AE30" s="63">
-        <v>-2</v>
+        <v>173</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4788,16 +4788,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>46</v>
+        <v>4953</v>
       </c>
       <c r="AJ30" s="73">
-        <v>40</v>
+        <v>4304</v>
       </c>
       <c r="AK30" s="75">
-        <v>6</v>
+        <v>649</v>
       </c>
       <c r="AL30" s="77">
-        <v>5525</v>
+        <v>605537</v>
       </c>
     </row>
     <row r="31">
@@ -4805,94 +4805,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>949</v>
+        <v>105424</v>
       </c>
       <c r="C31" s="7">
-        <v>1767</v>
+        <v>197028</v>
       </c>
       <c r="D31" s="9">
-        <v>-818</v>
+        <v>-91604</v>
       </c>
       <c r="E31" s="11">
-        <v>7038</v>
+        <v>785436</v>
       </c>
       <c r="F31" s="13">
-        <v>6990</v>
+        <v>781603</v>
       </c>
       <c r="G31" s="15">
-        <v>48</v>
+        <v>3833</v>
       </c>
       <c r="H31" s="17">
-        <v>1038</v>
+        <v>117805</v>
       </c>
       <c r="I31" s="19">
-        <v>304</v>
+        <v>33978</v>
       </c>
       <c r="J31" s="21">
-        <v>734</v>
+        <v>83827</v>
       </c>
       <c r="K31" s="23">
-        <v>104</v>
+        <v>11570</v>
       </c>
       <c r="L31" s="25">
-        <v>114</v>
+        <v>12715</v>
       </c>
       <c r="M31" s="27">
-        <v>-10</v>
+        <v>-1145</v>
       </c>
       <c r="N31" s="29">
-        <v>68</v>
+        <v>7824</v>
       </c>
       <c r="O31" s="31">
-        <v>13</v>
+        <v>1418</v>
       </c>
       <c r="P31" s="33">
-        <v>55</v>
+        <v>6407</v>
       </c>
       <c r="Q31" s="35">
-        <v>68</v>
+        <v>7676</v>
       </c>
       <c r="R31" s="37">
-        <v>53</v>
+        <v>5996</v>
       </c>
       <c r="S31" s="39">
-        <v>15</v>
+        <v>1680</v>
       </c>
       <c r="T31" s="41">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="U31" s="43">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="V31" s="45">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="W31" s="47">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X31" s="49">
         <v>0</v>
       </c>
       <c r="Y31" s="51">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z31" s="53">
-        <v>783</v>
+        <v>88983</v>
       </c>
       <c r="AA31" s="55">
-        <v>76</v>
+        <v>8484</v>
       </c>
       <c r="AB31" s="57">
-        <v>707</v>
+        <v>80499</v>
       </c>
       <c r="AC31" s="59">
-        <v>15</v>
+        <v>1626</v>
       </c>
       <c r="AD31" s="61">
-        <v>47</v>
+        <v>5259</v>
       </c>
       <c r="AE31" s="63">
-        <v>-33</v>
+        <v>-3633</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4904,16 +4904,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>83</v>
+        <v>9313</v>
       </c>
       <c r="AJ31" s="73">
-        <v>47</v>
+        <v>5369</v>
       </c>
       <c r="AK31" s="75">
-        <v>36</v>
+        <v>3944</v>
       </c>
       <c r="AL31" s="77">
-        <v>9108</v>
+        <v>1017979</v>
       </c>
     </row>
     <row r="32">
@@ -4921,58 +4921,58 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>1876</v>
+        <v>205299</v>
       </c>
       <c r="C32" s="7">
-        <v>4014</v>
+        <v>437733</v>
       </c>
       <c r="D32" s="9">
-        <v>-2138</v>
+        <v>-232434</v>
       </c>
       <c r="E32" s="11">
-        <v>9105</v>
+        <v>988897</v>
       </c>
       <c r="F32" s="13">
-        <v>6760</v>
+        <v>733309</v>
       </c>
       <c r="G32" s="15">
-        <v>2345</v>
+        <v>255588</v>
       </c>
       <c r="H32" s="17">
-        <v>415</v>
+        <v>44763</v>
       </c>
       <c r="I32" s="19">
-        <v>636</v>
+        <v>69300</v>
       </c>
       <c r="J32" s="21">
-        <v>-221</v>
+        <v>-24537</v>
       </c>
       <c r="K32" s="23">
-        <v>142</v>
+        <v>15346</v>
       </c>
       <c r="L32" s="25">
-        <v>172</v>
+        <v>18478</v>
       </c>
       <c r="M32" s="27">
-        <v>-30</v>
+        <v>-3132</v>
       </c>
       <c r="N32" s="29">
-        <v>7</v>
+        <v>774</v>
       </c>
       <c r="O32" s="31">
-        <v>13</v>
+        <v>1383</v>
       </c>
       <c r="P32" s="33">
-        <v>-6</v>
+        <v>-609</v>
       </c>
       <c r="Q32" s="35">
-        <v>34</v>
+        <v>3596</v>
       </c>
       <c r="R32" s="37">
-        <v>50</v>
+        <v>5364</v>
       </c>
       <c r="S32" s="39">
-        <v>-16</v>
+        <v>-1768</v>
       </c>
       <c r="T32" s="41">
         <v>0</v>
@@ -4984,31 +4984,31 @@
         <v>0</v>
       </c>
       <c r="W32" s="47">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="X32" s="49">
-        <v>7</v>
+        <v>710</v>
       </c>
       <c r="Y32" s="51">
-        <v>-1</v>
+        <v>-116</v>
       </c>
       <c r="Z32" s="53">
-        <v>223</v>
+        <v>24034</v>
       </c>
       <c r="AA32" s="55">
-        <v>358</v>
+        <v>39314</v>
       </c>
       <c r="AB32" s="57">
-        <v>-136</v>
+        <v>-15280</v>
       </c>
       <c r="AC32" s="59">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="AD32" s="61">
-        <v>37</v>
+        <v>4051</v>
       </c>
       <c r="AE32" s="63">
-        <v>-33</v>
+        <v>-3633</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>91</v>
+        <v>9875</v>
       </c>
       <c r="AJ32" s="73">
-        <v>77</v>
+        <v>8492</v>
       </c>
       <c r="AK32" s="75">
-        <v>14</v>
+        <v>1383</v>
       </c>
       <c r="AL32" s="77">
-        <v>11487</v>
+        <v>1248834</v>
       </c>
     </row>
     <row r="33">
@@ -5037,94 +5037,94 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>10053</v>
+        <v>1299071</v>
       </c>
       <c r="C33" s="7">
-        <v>5016</v>
+        <v>633150</v>
       </c>
       <c r="D33" s="9">
-        <v>5037</v>
+        <v>665921</v>
       </c>
       <c r="E33" s="11">
-        <v>7214</v>
+        <v>949972</v>
       </c>
       <c r="F33" s="13">
-        <v>4180</v>
+        <v>569841</v>
       </c>
       <c r="G33" s="15">
-        <v>3034</v>
+        <v>380131</v>
       </c>
       <c r="H33" s="17">
-        <v>1374</v>
+        <v>186631</v>
       </c>
       <c r="I33" s="19">
-        <v>896</v>
+        <v>122616</v>
       </c>
       <c r="J33" s="21">
-        <v>479</v>
+        <v>64015</v>
       </c>
       <c r="K33" s="23">
-        <v>320</v>
+        <v>45575</v>
       </c>
       <c r="L33" s="25">
-        <v>265</v>
+        <v>37538</v>
       </c>
       <c r="M33" s="27">
-        <v>55</v>
+        <v>8037</v>
       </c>
       <c r="N33" s="29">
-        <v>3</v>
+        <v>460</v>
       </c>
       <c r="O33" s="31">
-        <v>11</v>
+        <v>1514</v>
       </c>
       <c r="P33" s="33">
-        <v>-7</v>
+        <v>-1054</v>
       </c>
       <c r="Q33" s="35">
-        <v>205</v>
+        <v>25550</v>
       </c>
       <c r="R33" s="37">
+        <v>22452</v>
+      </c>
+      <c r="S33" s="39">
+        <v>3098</v>
+      </c>
+      <c r="T33" s="41">
+        <v>0</v>
+      </c>
+      <c r="U33" s="43">
+        <v>104</v>
+      </c>
+      <c r="V33" s="45">
+        <v>-104</v>
+      </c>
+      <c r="W33" s="47">
+        <v>0</v>
+      </c>
+      <c r="X33" s="49">
         <v>172</v>
       </c>
-      <c r="S33" s="39">
-        <v>33</v>
-      </c>
-      <c r="T33" s="41">
-        <v>0</v>
-      </c>
-      <c r="U33" s="43">
-        <v>1</v>
-      </c>
-      <c r="V33" s="45">
-        <v>-1</v>
-      </c>
-      <c r="W33" s="47">
-        <v>0</v>
-      </c>
-      <c r="X33" s="49">
-        <v>1</v>
-      </c>
       <c r="Y33" s="51">
-        <v>-1</v>
+        <v>-172</v>
       </c>
       <c r="Z33" s="53">
-        <v>526</v>
+        <v>73414</v>
       </c>
       <c r="AA33" s="55">
-        <v>167</v>
+        <v>23218</v>
       </c>
       <c r="AB33" s="57">
-        <v>358</v>
+        <v>50195</v>
       </c>
       <c r="AC33" s="59">
-        <v>321</v>
+        <v>41632</v>
       </c>
       <c r="AD33" s="61">
-        <v>279</v>
+        <v>37618</v>
       </c>
       <c r="AE33" s="63">
-        <v>42</v>
+        <v>4014</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5136,16 +5136,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>81</v>
+        <v>10315</v>
       </c>
       <c r="AJ33" s="73">
-        <v>8630</v>
+        <v>1120381</v>
       </c>
       <c r="AK33" s="75">
-        <v>-8550</v>
+        <v>-1110066</v>
       </c>
       <c r="AL33" s="77">
-        <v>18722</v>
+        <v>2445988</v>
       </c>
     </row>
     <row r="34">
@@ -5153,94 +5153,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>583</v>
+        <v>89595</v>
       </c>
       <c r="C34" s="7">
-        <v>692</v>
+        <v>105388</v>
       </c>
       <c r="D34" s="9">
-        <v>-109</v>
+        <v>-15793</v>
       </c>
       <c r="E34" s="11">
-        <v>9497</v>
+        <v>1460384</v>
       </c>
       <c r="F34" s="13">
-        <v>6390</v>
+        <v>985397</v>
       </c>
       <c r="G34" s="15">
-        <v>3107</v>
+        <v>474988</v>
       </c>
       <c r="H34" s="17">
-        <v>1068</v>
+        <v>165057</v>
       </c>
       <c r="I34" s="19">
-        <v>3972</v>
+        <v>610050</v>
       </c>
       <c r="J34" s="21">
-        <v>-2904</v>
+        <v>-444992</v>
       </c>
       <c r="K34" s="23">
-        <v>319</v>
+        <v>48702</v>
       </c>
       <c r="L34" s="25">
-        <v>574</v>
+        <v>88032</v>
       </c>
       <c r="M34" s="27">
-        <v>-256</v>
+        <v>-39330</v>
       </c>
       <c r="N34" s="29">
-        <v>42</v>
+        <v>6395</v>
       </c>
       <c r="O34" s="31">
-        <v>125</v>
+        <v>19143</v>
       </c>
       <c r="P34" s="33">
-        <v>-84</v>
+        <v>-12748</v>
       </c>
       <c r="Q34" s="35">
-        <v>19</v>
+        <v>2929</v>
       </c>
       <c r="R34" s="37">
-        <v>664</v>
+        <v>101924</v>
       </c>
       <c r="S34" s="39">
-        <v>-645</v>
+        <v>-98994</v>
       </c>
       <c r="T34" s="41">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="U34" s="43">
-        <v>3</v>
+        <v>438</v>
       </c>
       <c r="V34" s="45">
-        <v>-2</v>
+        <v>-242</v>
       </c>
       <c r="W34" s="47">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="X34" s="49">
-        <v>53</v>
+        <v>8121</v>
       </c>
       <c r="Y34" s="51">
-        <v>-52</v>
+        <v>-7990</v>
       </c>
       <c r="Z34" s="53">
-        <v>673</v>
+        <v>104682</v>
       </c>
       <c r="AA34" s="55">
-        <v>1106</v>
+        <v>169848</v>
       </c>
       <c r="AB34" s="57">
-        <v>-433</v>
+        <v>-65166</v>
       </c>
       <c r="AC34" s="59">
-        <v>13</v>
+        <v>2023</v>
       </c>
       <c r="AD34" s="61">
-        <v>1446</v>
+        <v>222544</v>
       </c>
       <c r="AE34" s="63">
-        <v>-1432</v>
+        <v>-220521</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5252,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>109</v>
+        <v>16988</v>
       </c>
       <c r="AJ34" s="73">
-        <v>203</v>
+        <v>31190</v>
       </c>
       <c r="AK34" s="75">
-        <v>-94</v>
+        <v>-14202</v>
       </c>
       <c r="AL34" s="77">
-        <v>11257</v>
+        <v>1732024</v>
       </c>
     </row>
     <row r="35">
@@ -5269,94 +5269,94 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>1327</v>
+        <v>235301</v>
       </c>
       <c r="C35" s="7">
-        <v>971</v>
+        <v>172724</v>
       </c>
       <c r="D35" s="9">
-        <v>355</v>
+        <v>62577</v>
       </c>
       <c r="E35" s="11">
-        <v>3531</v>
+        <v>616147</v>
       </c>
       <c r="F35" s="13">
-        <v>3926</v>
+        <v>686063</v>
       </c>
       <c r="G35" s="15">
-        <v>-396</v>
+        <v>-69916</v>
       </c>
       <c r="H35" s="17">
-        <v>611</v>
+        <v>106580</v>
       </c>
       <c r="I35" s="19">
-        <v>561</v>
+        <v>97562</v>
       </c>
       <c r="J35" s="21">
-        <v>50</v>
+        <v>9018</v>
       </c>
       <c r="K35" s="23">
-        <v>238</v>
+        <v>41112</v>
       </c>
       <c r="L35" s="25">
-        <v>173</v>
+        <v>29962</v>
       </c>
       <c r="M35" s="27">
-        <v>65</v>
+        <v>11150</v>
       </c>
       <c r="N35" s="29">
-        <v>50</v>
+        <v>8696</v>
       </c>
       <c r="O35" s="31">
-        <v>53</v>
+        <v>9223</v>
       </c>
       <c r="P35" s="33">
-        <v>-3</v>
+        <v>-527</v>
       </c>
       <c r="Q35" s="35">
-        <v>139</v>
+        <v>24638</v>
       </c>
       <c r="R35" s="37">
-        <v>82</v>
+        <v>14334</v>
       </c>
       <c r="S35" s="39">
-        <v>57</v>
+        <v>10304</v>
       </c>
       <c r="T35" s="41">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U35" s="43">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="V35" s="45">
-        <v>-1</v>
+        <v>-185</v>
       </c>
       <c r="W35" s="47">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="X35" s="49">
-        <v>5</v>
+        <v>920</v>
       </c>
       <c r="Y35" s="51">
-        <v>-5</v>
+        <v>-813</v>
       </c>
       <c r="Z35" s="53">
-        <v>159</v>
+        <v>27534</v>
       </c>
       <c r="AA35" s="55">
-        <v>221</v>
+        <v>38528</v>
       </c>
       <c r="AB35" s="57">
-        <v>-63</v>
+        <v>-10995</v>
       </c>
       <c r="AC35" s="59">
-        <v>25</v>
+        <v>4471</v>
       </c>
       <c r="AD35" s="61">
-        <v>25</v>
+        <v>4387</v>
       </c>
       <c r="AE35" s="63">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5368,16 +5368,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>26</v>
+        <v>4479</v>
       </c>
       <c r="AJ35" s="73">
-        <v>36</v>
+        <v>6159</v>
       </c>
       <c r="AK35" s="75">
-        <v>-10</v>
+        <v>-1680</v>
       </c>
       <c r="AL35" s="77">
-        <v>5494</v>
+        <v>962508</v>
       </c>
     </row>
     <row r="36">
@@ -5385,94 +5385,94 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>3080</v>
+        <v>554041</v>
       </c>
       <c r="C36" s="7">
-        <v>1709</v>
+        <v>305292</v>
       </c>
       <c r="D36" s="9">
-        <v>1371</v>
+        <v>248749</v>
       </c>
       <c r="E36" s="11">
-        <v>6155</v>
+        <v>1064427</v>
       </c>
       <c r="F36" s="13">
-        <v>7501</v>
+        <v>1308153</v>
       </c>
       <c r="G36" s="15">
-        <v>-1346</v>
+        <v>-243726</v>
       </c>
       <c r="H36" s="17">
-        <v>506</v>
+        <v>86838</v>
       </c>
       <c r="I36" s="19">
-        <v>469</v>
+        <v>81189</v>
       </c>
       <c r="J36" s="21">
-        <v>36</v>
+        <v>5649</v>
       </c>
       <c r="K36" s="23">
-        <v>153</v>
+        <v>26282</v>
       </c>
       <c r="L36" s="25">
-        <v>129</v>
+        <v>22123</v>
       </c>
       <c r="M36" s="27">
-        <v>24</v>
+        <v>4160</v>
       </c>
       <c r="N36" s="29">
-        <v>22</v>
+        <v>3799</v>
       </c>
       <c r="O36" s="31">
-        <v>44</v>
+        <v>7530</v>
       </c>
       <c r="P36" s="33">
-        <v>-21</v>
+        <v>-3731</v>
       </c>
       <c r="Q36" s="35">
-        <v>78</v>
+        <v>13967</v>
       </c>
       <c r="R36" s="37">
-        <v>75</v>
+        <v>13085</v>
       </c>
       <c r="S36" s="39">
-        <v>3</v>
+        <v>882</v>
       </c>
       <c r="T36" s="41">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="U36" s="43">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V36" s="45">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="W36" s="47">
-        <v>4</v>
+        <v>683</v>
       </c>
       <c r="X36" s="49">
-        <v>12</v>
+        <v>2043</v>
       </c>
       <c r="Y36" s="51">
-        <v>-7</v>
+        <v>-1360</v>
       </c>
       <c r="Z36" s="53">
-        <v>221</v>
+        <v>37380</v>
       </c>
       <c r="AA36" s="55">
-        <v>105</v>
+        <v>17833</v>
       </c>
       <c r="AB36" s="57">
-        <v>116</v>
+        <v>19547</v>
       </c>
       <c r="AC36" s="59">
-        <v>26</v>
+        <v>4474</v>
       </c>
       <c r="AD36" s="61">
-        <v>105</v>
+        <v>18547</v>
       </c>
       <c r="AE36" s="63">
-        <v>-79</v>
+        <v>-14073</v>
       </c>
       <c r="AF36" s="65">
         <v>0</v>
@@ -5484,16 +5484,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="71">
-        <v>57</v>
+        <v>9797</v>
       </c>
       <c r="AJ36" s="73">
-        <v>118</v>
+        <v>20468</v>
       </c>
       <c r="AK36" s="75">
-        <v>-61</v>
+        <v>-10671</v>
       </c>
       <c r="AL36" s="77">
-        <v>9797</v>
+        <v>1715103</v>
       </c>
     </row>
     <row r="37">
@@ -5501,94 +5501,94 @@
         <v>49</v>
       </c>
       <c r="B37" s="5">
-        <v>941</v>
+        <v>143075</v>
       </c>
       <c r="C37" s="7">
-        <v>428</v>
+        <v>65917</v>
       </c>
       <c r="D37" s="9">
-        <v>513</v>
+        <v>77158</v>
       </c>
       <c r="E37" s="11">
-        <v>6779</v>
+        <v>1034356</v>
       </c>
       <c r="F37" s="13">
-        <v>6351</v>
+        <v>975938</v>
       </c>
       <c r="G37" s="15">
-        <v>428</v>
+        <v>58418</v>
       </c>
       <c r="H37" s="17">
-        <v>634</v>
+        <v>96653</v>
       </c>
       <c r="I37" s="19">
-        <v>1496</v>
+        <v>220120</v>
       </c>
       <c r="J37" s="21">
-        <v>-862</v>
+        <v>-123467</v>
       </c>
       <c r="K37" s="23">
-        <v>200</v>
+        <v>29910</v>
       </c>
       <c r="L37" s="25">
-        <v>264</v>
+        <v>39913</v>
       </c>
       <c r="M37" s="27">
-        <v>-64</v>
+        <v>-10003</v>
       </c>
       <c r="N37" s="29">
-        <v>58</v>
+        <v>8736</v>
       </c>
       <c r="O37" s="31">
-        <v>66</v>
+        <v>9581</v>
       </c>
       <c r="P37" s="33">
-        <v>-8</v>
+        <v>-845</v>
       </c>
       <c r="Q37" s="35">
-        <v>47</v>
+        <v>7271</v>
       </c>
       <c r="R37" s="37">
-        <v>258</v>
+        <v>37647</v>
       </c>
       <c r="S37" s="39">
-        <v>-212</v>
+        <v>-30375</v>
       </c>
       <c r="T37" s="41">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="U37" s="43">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="V37" s="45">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="W37" s="47">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="X37" s="49">
-        <v>84</v>
+        <v>12184</v>
       </c>
       <c r="Y37" s="51">
-        <v>-83</v>
+        <v>-12004</v>
       </c>
       <c r="Z37" s="53">
-        <v>216</v>
+        <v>33454</v>
       </c>
       <c r="AA37" s="55">
-        <v>88</v>
+        <v>13166</v>
       </c>
       <c r="AB37" s="57">
-        <v>128</v>
+        <v>20288</v>
       </c>
       <c r="AC37" s="59">
-        <v>112</v>
+        <v>16888</v>
       </c>
       <c r="AD37" s="61">
-        <v>735</v>
+        <v>107466</v>
       </c>
       <c r="AE37" s="63">
-        <v>-623</v>
+        <v>-90578</v>
       </c>
       <c r="AF37" s="65">
         <v>0</v>
@@ -5600,16 +5600,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="71">
-        <v>43</v>
+        <v>6417</v>
       </c>
       <c r="AJ37" s="73">
-        <v>122</v>
+        <v>18525</v>
       </c>
       <c r="AK37" s="75">
-        <v>-79</v>
+        <v>-12109</v>
       </c>
       <c r="AL37" s="77">
-        <v>8398</v>
+        <v>1280501</v>
       </c>
     </row>
     <row r="38">
@@ -5617,94 +5617,94 @@
         <v>50</v>
       </c>
       <c r="B38" s="5">
-        <v>862</v>
+        <v>151949</v>
       </c>
       <c r="C38" s="7">
-        <v>1046</v>
+        <v>184148</v>
       </c>
       <c r="D38" s="9">
-        <v>-184</v>
+        <v>-32199</v>
       </c>
       <c r="E38" s="11">
-        <v>7972</v>
+        <v>1433065</v>
       </c>
       <c r="F38" s="13">
-        <v>8013</v>
+        <v>1444595</v>
       </c>
       <c r="G38" s="15">
-        <v>-41</v>
+        <v>-11530</v>
       </c>
       <c r="H38" s="17">
-        <v>1110</v>
+        <v>201013</v>
       </c>
       <c r="I38" s="19">
-        <v>881</v>
+        <v>156723</v>
       </c>
       <c r="J38" s="21">
-        <v>229</v>
+        <v>44290</v>
       </c>
       <c r="K38" s="23">
-        <v>134</v>
+        <v>23922</v>
       </c>
       <c r="L38" s="25">
-        <v>191</v>
+        <v>33871</v>
       </c>
       <c r="M38" s="27">
-        <v>-57</v>
+        <v>-9949</v>
       </c>
       <c r="N38" s="29">
-        <v>170</v>
+        <v>31338</v>
       </c>
       <c r="O38" s="31">
-        <v>140</v>
+        <v>24484</v>
       </c>
       <c r="P38" s="33">
-        <v>31</v>
+        <v>6854</v>
       </c>
       <c r="Q38" s="35">
-        <v>276</v>
+        <v>50300</v>
       </c>
       <c r="R38" s="37">
-        <v>129</v>
+        <v>23394</v>
       </c>
       <c r="S38" s="39">
-        <v>148</v>
+        <v>26906</v>
       </c>
       <c r="T38" s="41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U38" s="43">
-        <v>8</v>
+        <v>1451</v>
       </c>
       <c r="V38" s="45">
-        <v>-7</v>
+        <v>-1391</v>
       </c>
       <c r="W38" s="47">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="X38" s="49">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Y38" s="51">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="Z38" s="53">
-        <v>400</v>
+        <v>71770</v>
       </c>
       <c r="AA38" s="55">
-        <v>280</v>
+        <v>48916</v>
       </c>
       <c r="AB38" s="57">
-        <v>120</v>
+        <v>22854</v>
       </c>
       <c r="AC38" s="59">
-        <v>128</v>
+        <v>23522</v>
       </c>
       <c r="AD38" s="61">
-        <v>133</v>
+        <v>24564</v>
       </c>
       <c r="AE38" s="63">
-        <v>-5</v>
+        <v>-1042</v>
       </c>
       <c r="AF38" s="65">
         <v>0</v>
@@ -5716,16 +5716,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="71">
-        <v>83</v>
+        <v>14930</v>
       </c>
       <c r="AJ38" s="73">
-        <v>86</v>
+        <v>15491</v>
       </c>
       <c r="AK38" s="75">
-        <v>-4</v>
+        <v>-561</v>
       </c>
       <c r="AL38" s="77">
-        <v>10027</v>
+        <v>1800957</v>
       </c>
     </row>
     <row r="39">
@@ -5733,94 +5733,94 @@
         <v>51</v>
       </c>
       <c r="B39" s="5">
-        <v>492</v>
+        <v>86626</v>
       </c>
       <c r="C39" s="7">
-        <v>665</v>
+        <v>117364</v>
       </c>
       <c r="D39" s="9">
-        <v>-173</v>
+        <v>-30738</v>
       </c>
       <c r="E39" s="11">
-        <v>7698</v>
+        <v>1382521</v>
       </c>
       <c r="F39" s="13">
-        <v>7360</v>
+        <v>1324409</v>
       </c>
       <c r="G39" s="15">
-        <v>338</v>
+        <v>58111</v>
       </c>
       <c r="H39" s="17">
-        <v>354</v>
+        <v>63952</v>
       </c>
       <c r="I39" s="19">
-        <v>590</v>
+        <v>103754</v>
       </c>
       <c r="J39" s="21">
-        <v>-236</v>
+        <v>-39803</v>
       </c>
       <c r="K39" s="23">
-        <v>59</v>
+        <v>10888</v>
       </c>
       <c r="L39" s="25">
-        <v>151</v>
+        <v>26692</v>
       </c>
       <c r="M39" s="27">
-        <v>-92</v>
+        <v>-15803</v>
       </c>
       <c r="N39" s="29">
-        <v>29</v>
+        <v>5170</v>
       </c>
       <c r="O39" s="31">
-        <v>19</v>
+        <v>3346</v>
       </c>
       <c r="P39" s="33">
-        <v>10</v>
+        <v>1824</v>
       </c>
       <c r="Q39" s="35">
-        <v>47</v>
+        <v>8479</v>
       </c>
       <c r="R39" s="37">
-        <v>46</v>
+        <v>7931</v>
       </c>
       <c r="S39" s="39">
-        <v>2</v>
+        <v>548</v>
       </c>
       <c r="T39" s="41">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="U39" s="43">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="V39" s="45">
-        <v>-1</v>
+        <v>-226</v>
       </c>
       <c r="W39" s="47">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="X39" s="49">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="Y39" s="51">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z39" s="53">
-        <v>149</v>
+        <v>26305</v>
       </c>
       <c r="AA39" s="55">
-        <v>178</v>
+        <v>31054</v>
       </c>
       <c r="AB39" s="57">
-        <v>-29</v>
+        <v>-4749</v>
       </c>
       <c r="AC39" s="59">
-        <v>68</v>
+        <v>12794</v>
       </c>
       <c r="AD39" s="61">
-        <v>193</v>
+        <v>34255</v>
       </c>
       <c r="AE39" s="63">
-        <v>-125</v>
+        <v>-21461</v>
       </c>
       <c r="AF39" s="65">
         <v>0</v>
@@ -5832,16 +5832,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="71">
-        <v>113</v>
+        <v>19918</v>
       </c>
       <c r="AJ39" s="73">
-        <v>42</v>
+        <v>7489</v>
       </c>
       <c r="AK39" s="75">
-        <v>71</v>
+        <v>12429</v>
       </c>
       <c r="AL39" s="77">
-        <v>8658</v>
+        <v>1553016</v>
       </c>
     </row>
     <row r="40">
@@ -5849,94 +5849,94 @@
         <v>52</v>
       </c>
       <c r="B40" s="6">
-        <v>784</v>
+        <v>148796</v>
       </c>
       <c r="C40" s="8">
-        <v>4925</v>
+        <v>977045</v>
       </c>
       <c r="D40" s="10">
-        <v>-4141</v>
+        <v>-828249</v>
       </c>
       <c r="E40" s="12">
-        <v>41416</v>
+        <v>8560080</v>
       </c>
       <c r="F40" s="14">
-        <v>38130</v>
+        <v>7909395</v>
       </c>
       <c r="G40" s="16">
-        <v>3286</v>
+        <v>650685</v>
       </c>
       <c r="H40" s="18">
-        <v>1552</v>
+        <v>315962</v>
       </c>
       <c r="I40" s="20">
-        <v>618</v>
+        <v>121829</v>
       </c>
       <c r="J40" s="22">
-        <v>934</v>
+        <v>194133</v>
       </c>
       <c r="K40" s="24">
-        <v>219</v>
+        <v>43369</v>
       </c>
       <c r="L40" s="26">
-        <v>232</v>
+        <v>46723</v>
       </c>
       <c r="M40" s="28">
-        <v>-14</v>
+        <v>-3354</v>
       </c>
       <c r="N40" s="30">
-        <v>148</v>
+        <v>30305</v>
       </c>
       <c r="O40" s="32">
-        <v>28</v>
+        <v>5686</v>
       </c>
       <c r="P40" s="34">
-        <v>120</v>
+        <v>24620</v>
       </c>
       <c r="Q40" s="36">
-        <v>246</v>
+        <v>50513</v>
       </c>
       <c r="R40" s="38">
-        <v>84</v>
+        <v>16164</v>
       </c>
       <c r="S40" s="40">
-        <v>162</v>
+        <v>34349</v>
       </c>
       <c r="T40" s="42">
-        <v>5</v>
+        <v>1040</v>
       </c>
       <c r="U40" s="44">
-        <v>4</v>
+        <v>760</v>
       </c>
       <c r="V40" s="46">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="W40" s="48">
-        <v>8</v>
+        <v>1807</v>
       </c>
       <c r="X40" s="50">
-        <v>34</v>
+        <v>6165</v>
       </c>
       <c r="Y40" s="52">
-        <v>-26</v>
+        <v>-4358</v>
       </c>
       <c r="Z40" s="54">
-        <v>857</v>
+        <v>175421</v>
       </c>
       <c r="AA40" s="56">
-        <v>79</v>
+        <v>15193</v>
       </c>
       <c r="AB40" s="58">
-        <v>778</v>
+        <v>160227</v>
       </c>
       <c r="AC40" s="60">
-        <v>69</v>
+        <v>13507</v>
       </c>
       <c r="AD40" s="62">
-        <v>156</v>
+        <v>31137</v>
       </c>
       <c r="AE40" s="64">
-        <v>-87</v>
+        <v>-17631</v>
       </c>
       <c r="AF40" s="66">
         <v>0</v>
@@ -5948,16 +5948,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="72">
-        <v>282</v>
+        <v>55897</v>
       </c>
       <c r="AJ40" s="74">
-        <v>361</v>
+        <v>72466</v>
       </c>
       <c r="AK40" s="76">
-        <v>-79</v>
+        <v>-16569</v>
       </c>
       <c r="AL40" s="78">
-        <v>44033</v>
+        <v>9080734</v>
       </c>
     </row>
   </sheetData>
